--- a/clusters.xlsx
+++ b/clusters.xlsx
@@ -8936,6 +8936,1821 @@
     <t>EAM_1116</t>
   </si>
   <si>
+    <t>EAM_0499</t>
+  </si>
+  <si>
+    <t>EAM_0679</t>
+  </si>
+  <si>
+    <t>EAM_1656</t>
+  </si>
+  <si>
+    <t>EAM_2613</t>
+  </si>
+  <si>
+    <t>EAM_0101</t>
+  </si>
+  <si>
+    <t>EAM_0103</t>
+  </si>
+  <si>
+    <t>EAM_0111</t>
+  </si>
+  <si>
+    <t>EAM_0143</t>
+  </si>
+  <si>
+    <t>EAM_0228</t>
+  </si>
+  <si>
+    <t>EAM_0229</t>
+  </si>
+  <si>
+    <t>EAM_0255</t>
+  </si>
+  <si>
+    <t>EAM_0270</t>
+  </si>
+  <si>
+    <t>EAM_0419</t>
+  </si>
+  <si>
+    <t>EAM_0425</t>
+  </si>
+  <si>
+    <t>EAM_0640</t>
+  </si>
+  <si>
+    <t>EAM_0649</t>
+  </si>
+  <si>
+    <t>EAM_0704</t>
+  </si>
+  <si>
+    <t>EAM_0819</t>
+  </si>
+  <si>
+    <t>EAM_0827</t>
+  </si>
+  <si>
+    <t>EAM_0933</t>
+  </si>
+  <si>
+    <t>EAM_0955</t>
+  </si>
+  <si>
+    <t>EAM_0988</t>
+  </si>
+  <si>
+    <t>EAM_0993</t>
+  </si>
+  <si>
+    <t>EAM_1029</t>
+  </si>
+  <si>
+    <t>EAM_1043</t>
+  </si>
+  <si>
+    <t>EAM_1044</t>
+  </si>
+  <si>
+    <t>EAM_1046</t>
+  </si>
+  <si>
+    <t>EAM_1047</t>
+  </si>
+  <si>
+    <t>EAM_1083</t>
+  </si>
+  <si>
+    <t>EAM_1117</t>
+  </si>
+  <si>
+    <t>EAM_1151</t>
+  </si>
+  <si>
+    <t>EAM_1159</t>
+  </si>
+  <si>
+    <t>EAM_1160</t>
+  </si>
+  <si>
+    <t>EAM_1231</t>
+  </si>
+  <si>
+    <t>EAM_1272</t>
+  </si>
+  <si>
+    <t>EAM_1274</t>
+  </si>
+  <si>
+    <t>EAM_1321</t>
+  </si>
+  <si>
+    <t>EAM_1340</t>
+  </si>
+  <si>
+    <t>EAM_1353</t>
+  </si>
+  <si>
+    <t>EAM_1377</t>
+  </si>
+  <si>
+    <t>EAM_1386</t>
+  </si>
+  <si>
+    <t>EAM_1428</t>
+  </si>
+  <si>
+    <t>EAM_1432</t>
+  </si>
+  <si>
+    <t>EAM_1537</t>
+  </si>
+  <si>
+    <t>EAM_1538</t>
+  </si>
+  <si>
+    <t>EAM_1539</t>
+  </si>
+  <si>
+    <t>EAM_1581</t>
+  </si>
+  <si>
+    <t>EAM_1627</t>
+  </si>
+  <si>
+    <t>EAM_1628</t>
+  </si>
+  <si>
+    <t>EAM_1651</t>
+  </si>
+  <si>
+    <t>EAM_1683</t>
+  </si>
+  <si>
+    <t>EAM_1704</t>
+  </si>
+  <si>
+    <t>EAM_1711</t>
+  </si>
+  <si>
+    <t>EAM_1736</t>
+  </si>
+  <si>
+    <t>EAM_1931</t>
+  </si>
+  <si>
+    <t>EAM_1935</t>
+  </si>
+  <si>
+    <t>EAM_1964</t>
+  </si>
+  <si>
+    <t>EAM_2055</t>
+  </si>
+  <si>
+    <t>EAM_2061</t>
+  </si>
+  <si>
+    <t>EAM_2262</t>
+  </si>
+  <si>
+    <t>EAM_2336</t>
+  </si>
+  <si>
+    <t>EAM_2378</t>
+  </si>
+  <si>
+    <t>EAM_2388</t>
+  </si>
+  <si>
+    <t>EAM_2392</t>
+  </si>
+  <si>
+    <t>EAM_2413</t>
+  </si>
+  <si>
+    <t>EAM_2440</t>
+  </si>
+  <si>
+    <t>EAM_2447</t>
+  </si>
+  <si>
+    <t>EAM_2514</t>
+  </si>
+  <si>
+    <t>EAM_2521</t>
+  </si>
+  <si>
+    <t>EAM_2522</t>
+  </si>
+  <si>
+    <t>EAM_2630</t>
+  </si>
+  <si>
+    <t>EAM_2637</t>
+  </si>
+  <si>
+    <t>EAM_2679</t>
+  </si>
+  <si>
+    <t>EAM_2680</t>
+  </si>
+  <si>
+    <t>EAM_2706</t>
+  </si>
+  <si>
+    <t>EAM_2796</t>
+  </si>
+  <si>
+    <t>EAM_2824</t>
+  </si>
+  <si>
+    <t>EAM_2825</t>
+  </si>
+  <si>
+    <t>EAM_2940</t>
+  </si>
+  <si>
+    <t>EAM_2958</t>
+  </si>
+  <si>
+    <t>EAM_3004</t>
+  </si>
+  <si>
+    <t>EAM_3005</t>
+  </si>
+  <si>
+    <t>EAM_3065</t>
+  </si>
+  <si>
+    <t>EAM_3071</t>
+  </si>
+  <si>
+    <t>EAM_3078</t>
+  </si>
+  <si>
+    <t>EAM_3079</t>
+  </si>
+  <si>
+    <t>EAM_3201</t>
+  </si>
+  <si>
+    <t>EAM_3250</t>
+  </si>
+  <si>
+    <t>EAM_3311</t>
+  </si>
+  <si>
+    <t>EAM_3312</t>
+  </si>
+  <si>
+    <t>EAM_3324</t>
+  </si>
+  <si>
+    <t>EAM_3446</t>
+  </si>
+  <si>
+    <t>EAM_3471</t>
+  </si>
+  <si>
+    <t>EAM_3472</t>
+  </si>
+  <si>
+    <t>EAM_2194</t>
+  </si>
+  <si>
+    <t>EAM_3066</t>
+  </si>
+  <si>
+    <t>EAM_0003</t>
+  </si>
+  <si>
+    <t>EAM_0007</t>
+  </si>
+  <si>
+    <t>EAM_0010</t>
+  </si>
+  <si>
+    <t>EAM_0013</t>
+  </si>
+  <si>
+    <t>EAM_0026</t>
+  </si>
+  <si>
+    <t>EAM_0028</t>
+  </si>
+  <si>
+    <t>EAM_0029</t>
+  </si>
+  <si>
+    <t>EAM_0033</t>
+  </si>
+  <si>
+    <t>EAM_0045</t>
+  </si>
+  <si>
+    <t>EAM_0060</t>
+  </si>
+  <si>
+    <t>EAM_0071</t>
+  </si>
+  <si>
+    <t>EAM_0099</t>
+  </si>
+  <si>
+    <t>EAM_0100</t>
+  </si>
+  <si>
+    <t>EAM_0104</t>
+  </si>
+  <si>
+    <t>EAM_0121</t>
+  </si>
+  <si>
+    <t>EAM_0127</t>
+  </si>
+  <si>
+    <t>EAM_0134</t>
+  </si>
+  <si>
+    <t>EAM_0144</t>
+  </si>
+  <si>
+    <t>EAM_0154</t>
+  </si>
+  <si>
+    <t>EAM_0162</t>
+  </si>
+  <si>
+    <t>EAM_0163</t>
+  </si>
+  <si>
+    <t>EAM_0165</t>
+  </si>
+  <si>
+    <t>EAM_0177</t>
+  </si>
+  <si>
+    <t>EAM_0178</t>
+  </si>
+  <si>
+    <t>EAM_0179</t>
+  </si>
+  <si>
+    <t>EAM_0180</t>
+  </si>
+  <si>
+    <t>EAM_0181</t>
+  </si>
+  <si>
+    <t>EAM_0187</t>
+  </si>
+  <si>
+    <t>EAM_0193</t>
+  </si>
+  <si>
+    <t>EAM_0202</t>
+  </si>
+  <si>
+    <t>EAM_0203</t>
+  </si>
+  <si>
+    <t>EAM_0204</t>
+  </si>
+  <si>
+    <t>EAM_0209</t>
+  </si>
+  <si>
+    <t>EAM_0210</t>
+  </si>
+  <si>
+    <t>EAM_0212</t>
+  </si>
+  <si>
+    <t>EAM_0213</t>
+  </si>
+  <si>
+    <t>EAM_0214</t>
+  </si>
+  <si>
+    <t>EAM_0215</t>
+  </si>
+  <si>
+    <t>EAM_0216</t>
+  </si>
+  <si>
+    <t>EAM_0222</t>
+  </si>
+  <si>
+    <t>EAM_0223</t>
+  </si>
+  <si>
+    <t>EAM_0226</t>
+  </si>
+  <si>
+    <t>EAM_0227</t>
+  </si>
+  <si>
+    <t>EAM_0254</t>
+  </si>
+  <si>
+    <t>EAM_0262</t>
+  </si>
+  <si>
+    <t>EAM_0266</t>
+  </si>
+  <si>
+    <t>EAM_0267</t>
+  </si>
+  <si>
+    <t>EAM_0268</t>
+  </si>
+  <si>
+    <t>EAM_0281</t>
+  </si>
+  <si>
+    <t>EAM_0292</t>
+  </si>
+  <si>
+    <t>EAM_0307</t>
+  </si>
+  <si>
+    <t>EAM_0308</t>
+  </si>
+  <si>
+    <t>EAM_0321</t>
+  </si>
+  <si>
+    <t>EAM_0338</t>
+  </si>
+  <si>
+    <t>EAM_0343</t>
+  </si>
+  <si>
+    <t>EAM_0344</t>
+  </si>
+  <si>
+    <t>EAM_0347</t>
+  </si>
+  <si>
+    <t>EAM_0349</t>
+  </si>
+  <si>
+    <t>EAM_0350</t>
+  </si>
+  <si>
+    <t>EAM_0351</t>
+  </si>
+  <si>
+    <t>EAM_0356</t>
+  </si>
+  <si>
+    <t>EAM_0420</t>
+  </si>
+  <si>
+    <t>EAM_0424</t>
+  </si>
+  <si>
+    <t>EAM_0426</t>
+  </si>
+  <si>
+    <t>EAM_0431</t>
+  </si>
+  <si>
+    <t>EAM_0433</t>
+  </si>
+  <si>
+    <t>EAM_0435</t>
+  </si>
+  <si>
+    <t>EAM_0438</t>
+  </si>
+  <si>
+    <t>EAM_0441</t>
+  </si>
+  <si>
+    <t>EAM_0443</t>
+  </si>
+  <si>
+    <t>EAM_0451</t>
+  </si>
+  <si>
+    <t>EAM_0455</t>
+  </si>
+  <si>
+    <t>EAM_0457</t>
+  </si>
+  <si>
+    <t>EAM_0458</t>
+  </si>
+  <si>
+    <t>EAM_0460</t>
+  </si>
+  <si>
+    <t>EAM_0465</t>
+  </si>
+  <si>
+    <t>EAM_0466</t>
+  </si>
+  <si>
+    <t>EAM_0467</t>
+  </si>
+  <si>
+    <t>EAM_0498</t>
+  </si>
+  <si>
+    <t>EAM_0512A</t>
+  </si>
+  <si>
+    <t>EAM_0517</t>
+  </si>
+  <si>
+    <t>EAM_0558</t>
+  </si>
+  <si>
+    <t>EAM_0559</t>
+  </si>
+  <si>
+    <t>EAM_0600</t>
+  </si>
+  <si>
+    <t>EAM_0610</t>
+  </si>
+  <si>
+    <t>EAM_0611</t>
+  </si>
+  <si>
+    <t>EAM_0615</t>
+  </si>
+  <si>
+    <t>EAM_0616</t>
+  </si>
+  <si>
+    <t>EAM_0617</t>
+  </si>
+  <si>
+    <t>EAM_0618</t>
+  </si>
+  <si>
+    <t>EAM_0625</t>
+  </si>
+  <si>
+    <t>EAM_0628</t>
+  </si>
+  <si>
+    <t>EAM_0633</t>
+  </si>
+  <si>
+    <t>EAM_0636</t>
+  </si>
+  <si>
+    <t>EAM_0650</t>
+  </si>
+  <si>
+    <t>EAM_0655</t>
+  </si>
+  <si>
+    <t>EAM_0659</t>
+  </si>
+  <si>
+    <t>EAM_0661</t>
+  </si>
+  <si>
+    <t>EAM_0669</t>
+  </si>
+  <si>
+    <t>EAM_0672</t>
+  </si>
+  <si>
+    <t>EAM_0689</t>
+  </si>
+  <si>
+    <t>EAM_0690</t>
+  </si>
+  <si>
+    <t>EAM_0692</t>
+  </si>
+  <si>
+    <t>EAM_0702</t>
+  </si>
+  <si>
+    <t>EAM_0703</t>
+  </si>
+  <si>
+    <t>EAM_0709</t>
+  </si>
+  <si>
+    <t>EAM_0725</t>
+  </si>
+  <si>
+    <t>EAM_0728</t>
+  </si>
+  <si>
+    <t>EAM_0747</t>
+  </si>
+  <si>
+    <t>EAM_0748</t>
+  </si>
+  <si>
+    <t>EAM_0762</t>
+  </si>
+  <si>
+    <t>EAM_0772</t>
+  </si>
+  <si>
+    <t>EAM_0783</t>
+  </si>
+  <si>
+    <t>EAM_0792</t>
+  </si>
+  <si>
+    <t>EAM_0793</t>
+  </si>
+  <si>
+    <t>EAM_0794</t>
+  </si>
+  <si>
+    <t>EAM_0813</t>
+  </si>
+  <si>
+    <t>EAM_0814</t>
+  </si>
+  <si>
+    <t>EAM_0820</t>
+  </si>
+  <si>
+    <t>EAM_0822</t>
+  </si>
+  <si>
+    <t>EAM_0823</t>
+  </si>
+  <si>
+    <t>EAM_0826</t>
+  </si>
+  <si>
+    <t>EAM_0828</t>
+  </si>
+  <si>
+    <t>EAM_0829</t>
+  </si>
+  <si>
+    <t>EAM_0834</t>
+  </si>
+  <si>
+    <t>EAM_0835</t>
+  </si>
+  <si>
+    <t>EAM_0840</t>
+  </si>
+  <si>
+    <t>EAM_0883</t>
+  </si>
+  <si>
+    <t>EAM_0890</t>
+  </si>
+  <si>
+    <t>EAM_0892</t>
+  </si>
+  <si>
+    <t>EAM_0927</t>
+  </si>
+  <si>
+    <t>EAM_0937</t>
+  </si>
+  <si>
+    <t>EAM_0938</t>
+  </si>
+  <si>
+    <t>EAM_0967</t>
+  </si>
+  <si>
+    <t>EAM_0968</t>
+  </si>
+  <si>
+    <t>EAM_0974</t>
+  </si>
+  <si>
+    <t>EAM_0976</t>
+  </si>
+  <si>
+    <t>EAM_0978</t>
+  </si>
+  <si>
+    <t>EAM_0981</t>
+  </si>
+  <si>
+    <t>EAM_0984</t>
+  </si>
+  <si>
+    <t>EAM_0989</t>
+  </si>
+  <si>
+    <t>EAM_0990</t>
+  </si>
+  <si>
+    <t>EAM_0991</t>
+  </si>
+  <si>
+    <t>EAM_0994</t>
+  </si>
+  <si>
+    <t>EAM_1002</t>
+  </si>
+  <si>
+    <t>EAM_1003</t>
+  </si>
+  <si>
+    <t>EAM_1007</t>
+  </si>
+  <si>
+    <t>EAM_1016</t>
+  </si>
+  <si>
+    <t>EAM_1020</t>
+  </si>
+  <si>
+    <t>EAM_1024</t>
+  </si>
+  <si>
+    <t>EAM_1026</t>
+  </si>
+  <si>
+    <t>EAM_1027</t>
+  </si>
+  <si>
+    <t>EAM_1031</t>
+  </si>
+  <si>
+    <t>EAM_1032</t>
+  </si>
+  <si>
+    <t>EAM_1033</t>
+  </si>
+  <si>
+    <t>EAM_1034</t>
+  </si>
+  <si>
+    <t>EAM_1049</t>
+  </si>
+  <si>
+    <t>EAM_1057</t>
+  </si>
+  <si>
+    <t>EAM_1058</t>
+  </si>
+  <si>
+    <t>EAM_1063</t>
+  </si>
+  <si>
+    <t>EAM_1077</t>
+  </si>
+  <si>
+    <t>EAM_1079</t>
+  </si>
+  <si>
+    <t>EAM_1080</t>
+  </si>
+  <si>
+    <t>EAM_1082</t>
+  </si>
+  <si>
+    <t>EAM_1084</t>
+  </si>
+  <si>
+    <t>EAM_1119</t>
+  </si>
+  <si>
+    <t>EAM_1123</t>
+  </si>
+  <si>
+    <t>EAM_1131</t>
+  </si>
+  <si>
+    <t>EAM_1138</t>
+  </si>
+  <si>
+    <t>EAM_1141</t>
+  </si>
+  <si>
+    <t>EAM_1142</t>
+  </si>
+  <si>
+    <t>EAM_1148</t>
+  </si>
+  <si>
+    <t>EAM_1149</t>
+  </si>
+  <si>
+    <t>EAM_1158</t>
+  </si>
+  <si>
+    <t>EAM_1161</t>
+  </si>
+  <si>
+    <t>EAM_1168</t>
+  </si>
+  <si>
+    <t>EAM_1170</t>
+  </si>
+  <si>
+    <t>EAM_1172</t>
+  </si>
+  <si>
+    <t>EAM_1180</t>
+  </si>
+  <si>
+    <t>EAM_1181</t>
+  </si>
+  <si>
+    <t>EAM_1188</t>
+  </si>
+  <si>
+    <t>EAM_1200</t>
+  </si>
+  <si>
+    <t>EAM_1203</t>
+  </si>
+  <si>
+    <t>EAM_1209</t>
+  </si>
+  <si>
+    <t>EAM_1216</t>
+  </si>
+  <si>
+    <t>EAM_1217</t>
+  </si>
+  <si>
+    <t>EAM_1224</t>
+  </si>
+  <si>
+    <t>EAM_1228</t>
+  </si>
+  <si>
+    <t>EAM_1229</t>
+  </si>
+  <si>
+    <t>EAM_1230</t>
+  </si>
+  <si>
+    <t>EAM_1232</t>
+  </si>
+  <si>
+    <t>EAM_1235</t>
+  </si>
+  <si>
+    <t>EAM_1236</t>
+  </si>
+  <si>
+    <t>EAM_1247</t>
+  </si>
+  <si>
+    <t>EAM_1283</t>
+  </si>
+  <si>
+    <t>EAM_1284</t>
+  </si>
+  <si>
+    <t>EAM_1285</t>
+  </si>
+  <si>
+    <t>EAM_1286</t>
+  </si>
+  <si>
+    <t>EAM_1287</t>
+  </si>
+  <si>
+    <t>EAM_1296</t>
+  </si>
+  <si>
+    <t>EAM_1312</t>
+  </si>
+  <si>
+    <t>EAM_1317</t>
+  </si>
+  <si>
+    <t>EAM_1322</t>
+  </si>
+  <si>
+    <t>EAM_1323</t>
+  </si>
+  <si>
+    <t>EAM_1325</t>
+  </si>
+  <si>
+    <t>EAM_1326</t>
+  </si>
+  <si>
+    <t>EAM_1328</t>
+  </si>
+  <si>
+    <t>EAM_1329</t>
+  </si>
+  <si>
+    <t>EAM_1332</t>
+  </si>
+  <si>
+    <t>EAM_1341</t>
+  </si>
+  <si>
+    <t>EAM_1352</t>
+  </si>
+  <si>
+    <t>EAM_1354</t>
+  </si>
+  <si>
+    <t>EAM_1357</t>
+  </si>
+  <si>
+    <t>EAM_1360</t>
+  </si>
+  <si>
+    <t>EAM_1367</t>
+  </si>
+  <si>
+    <t>EAM_1369</t>
+  </si>
+  <si>
+    <t>EAM_1380</t>
+  </si>
+  <si>
+    <t>EAM_1382</t>
+  </si>
+  <si>
+    <t>EAM_1391</t>
+  </si>
+  <si>
+    <t>EAM_1403</t>
+  </si>
+  <si>
+    <t>EAM_1408</t>
+  </si>
+  <si>
+    <t>EAM_1417</t>
+  </si>
+  <si>
+    <t>EAM_1418</t>
+  </si>
+  <si>
+    <t>EAM_1421</t>
+  </si>
+  <si>
+    <t>EAM_1422</t>
+  </si>
+  <si>
+    <t>EAM_1450</t>
+  </si>
+  <si>
+    <t>EAM_1453</t>
+  </si>
+  <si>
+    <t>EAM_1459</t>
+  </si>
+  <si>
+    <t>EAM_1466</t>
+  </si>
+  <si>
+    <t>EAM_1469</t>
+  </si>
+  <si>
+    <t>EAM_1475</t>
+  </si>
+  <si>
+    <t>EAM_1511</t>
+  </si>
+  <si>
+    <t>EAM_1512</t>
+  </si>
+  <si>
+    <t>EAM_1517</t>
+  </si>
+  <si>
+    <t>EAM_1532</t>
+  </si>
+  <si>
+    <t>EAM_1536</t>
+  </si>
+  <si>
+    <t>EAM_1540</t>
+  </si>
+  <si>
+    <t>EAM_1542</t>
+  </si>
+  <si>
+    <t>EAM_1543</t>
+  </si>
+  <si>
+    <t>EAM_1544</t>
+  </si>
+  <si>
+    <t>EAM_1604</t>
+  </si>
+  <si>
+    <t>EAM_1606</t>
+  </si>
+  <si>
+    <t>EAM_1610</t>
+  </si>
+  <si>
+    <t>EAM_1616</t>
+  </si>
+  <si>
+    <t>EAM_1617</t>
+  </si>
+  <si>
+    <t>EAM_1622</t>
+  </si>
+  <si>
+    <t>EAM_1629</t>
+  </si>
+  <si>
+    <t>EAM_1630</t>
+  </si>
+  <si>
+    <t>EAM_1632</t>
+  </si>
+  <si>
+    <t>EAM_1634</t>
+  </si>
+  <si>
+    <t>EAM_1650</t>
+  </si>
+  <si>
+    <t>EAM_1652</t>
+  </si>
+  <si>
+    <t>EAM_1653</t>
+  </si>
+  <si>
+    <t>EAM_1654</t>
+  </si>
+  <si>
+    <t>EAM_1657</t>
+  </si>
+  <si>
+    <t>EAM_1660</t>
+  </si>
+  <si>
+    <t>EAM_1665</t>
+  </si>
+  <si>
+    <t>EAM_1680</t>
+  </si>
+  <si>
+    <t>EAM_1681</t>
+  </si>
+  <si>
+    <t>EAM_1687</t>
+  </si>
+  <si>
+    <t>EAM_1692</t>
+  </si>
+  <si>
+    <t>EAM_1695</t>
+  </si>
+  <si>
+    <t>EAM_1703</t>
+  </si>
+  <si>
+    <t>EAM_1706</t>
+  </si>
+  <si>
+    <t>EAM_1712</t>
+  </si>
+  <si>
+    <t>EAM_1737</t>
+  </si>
+  <si>
+    <t>EAM_1738</t>
+  </si>
+  <si>
+    <t>EAM_1742</t>
+  </si>
+  <si>
+    <t>EAM_1744</t>
+  </si>
+  <si>
+    <t>EAM_1754</t>
+  </si>
+  <si>
+    <t>EAM_1776</t>
+  </si>
+  <si>
+    <t>EAM_1786</t>
+  </si>
+  <si>
+    <t>EAM_1815</t>
+  </si>
+  <si>
+    <t>EAM_1818</t>
+  </si>
+  <si>
+    <t>EAM_1820</t>
+  </si>
+  <si>
+    <t>EAM_1823</t>
+  </si>
+  <si>
+    <t>EAM_1830</t>
+  </si>
+  <si>
+    <t>EAM_1831</t>
+  </si>
+  <si>
+    <t>EAM_1832</t>
+  </si>
+  <si>
+    <t>EAM_1835</t>
+  </si>
+  <si>
+    <t>EAM_1842</t>
+  </si>
+  <si>
+    <t>EAM_1849</t>
+  </si>
+  <si>
+    <t>EAM_1854</t>
+  </si>
+  <si>
+    <t>EAM_1857</t>
+  </si>
+  <si>
+    <t>EAM_1862</t>
+  </si>
+  <si>
+    <t>EAM_1866</t>
+  </si>
+  <si>
+    <t>EAM_1867</t>
+  </si>
+  <si>
+    <t>EAM_1868</t>
+  </si>
+  <si>
+    <t>EAM_1869</t>
+  </si>
+  <si>
+    <t>EAM_1870</t>
+  </si>
+  <si>
+    <t>EAM_1884</t>
+  </si>
+  <si>
+    <t>EAM_1885</t>
+  </si>
+  <si>
+    <t>EAM_1900</t>
+  </si>
+  <si>
+    <t>EAM_1917</t>
+  </si>
+  <si>
+    <t>EAM_1921</t>
+  </si>
+  <si>
+    <t>EAM_1926</t>
+  </si>
+  <si>
+    <t>EAM_1933</t>
+  </si>
+  <si>
+    <t>EAM_1936</t>
+  </si>
+  <si>
+    <t>EAM_1943</t>
+  </si>
+  <si>
+    <t>EAM_1945</t>
+  </si>
+  <si>
+    <t>EAM_1956</t>
+  </si>
+  <si>
+    <t>EAM_1957</t>
+  </si>
+  <si>
+    <t>EAM_1959</t>
+  </si>
+  <si>
+    <t>EAM_1976</t>
+  </si>
+  <si>
+    <t>EAM_1984</t>
+  </si>
+  <si>
+    <t>EAM_1992</t>
+  </si>
+  <si>
+    <t>EAM_1995</t>
+  </si>
+  <si>
+    <t>EAM_1996</t>
+  </si>
+  <si>
+    <t>EAM_2006</t>
+  </si>
+  <si>
+    <t>EAM_2016</t>
+  </si>
+  <si>
+    <t>EAM_2017</t>
+  </si>
+  <si>
+    <t>EAM_2033</t>
+  </si>
+  <si>
+    <t>EAM_2034</t>
+  </si>
+  <si>
+    <t>EAM_2056</t>
+  </si>
+  <si>
+    <t>EAM_2060</t>
+  </si>
+  <si>
+    <t>EAM_2076</t>
+  </si>
+  <si>
+    <t>EAM_2081</t>
+  </si>
+  <si>
+    <t>EAM_2120</t>
+  </si>
+  <si>
+    <t>EAM_2132</t>
+  </si>
+  <si>
+    <t>EAM_2150</t>
+  </si>
+  <si>
+    <t>EAM_2161</t>
+  </si>
+  <si>
+    <t>EAM_2162</t>
+  </si>
+  <si>
+    <t>EAM_2176</t>
+  </si>
+  <si>
+    <t>EAM_2182</t>
+  </si>
+  <si>
+    <t>EAM_2187</t>
+  </si>
+  <si>
+    <t>EAM_2191</t>
+  </si>
+  <si>
+    <t>EAM_2212</t>
+  </si>
+  <si>
+    <t>EAM_2221</t>
+  </si>
+  <si>
+    <t>EAM_2261</t>
+  </si>
+  <si>
+    <t>EAM_2264</t>
+  </si>
+  <si>
+    <t>EAM_2266</t>
+  </si>
+  <si>
+    <t>EAM_2275</t>
+  </si>
+  <si>
+    <t>EAM_2276</t>
+  </si>
+  <si>
+    <t>EAM_2281</t>
+  </si>
+  <si>
+    <t>EAM_2287</t>
+  </si>
+  <si>
+    <t>EAM_2290</t>
+  </si>
+  <si>
+    <t>EAM_2291</t>
+  </si>
+  <si>
+    <t>EAM_2293</t>
+  </si>
+  <si>
+    <t>EAM_2300</t>
+  </si>
+  <si>
+    <t>EAM_2302</t>
+  </si>
+  <si>
+    <t>EAM_2312</t>
+  </si>
+  <si>
+    <t>EAM_2323</t>
+  </si>
+  <si>
+    <t>EAM_2347</t>
+  </si>
+  <si>
+    <t>EAM_2363</t>
+  </si>
+  <si>
+    <t>EAM_2369</t>
+  </si>
+  <si>
+    <t>EAM_2370</t>
+  </si>
+  <si>
+    <t>EAM_2374</t>
+  </si>
+  <si>
+    <t>EAM_2375</t>
+  </si>
+  <si>
+    <t>EAM_2382</t>
+  </si>
+  <si>
+    <t>EAM_2391</t>
+  </si>
+  <si>
+    <t>EAM_2393</t>
+  </si>
+  <si>
+    <t>EAM_2407</t>
+  </si>
+  <si>
+    <t>EAM_2408</t>
+  </si>
+  <si>
+    <t>EAM_2414</t>
+  </si>
+  <si>
+    <t>EAM_2415</t>
+  </si>
+  <si>
+    <t>EAM_2435</t>
+  </si>
+  <si>
+    <t>EAM_2436</t>
+  </si>
+  <si>
+    <t>EAM_2439</t>
+  </si>
+  <si>
+    <t>EAM_2446</t>
+  </si>
+  <si>
+    <t>EAM_2465</t>
+  </si>
+  <si>
+    <t>EAM_2467</t>
+  </si>
+  <si>
+    <t>EAM_2469</t>
+  </si>
+  <si>
+    <t>EAM_2479</t>
+  </si>
+  <si>
+    <t>EAM_2497</t>
+  </si>
+  <si>
+    <t>EAM_2499</t>
+  </si>
+  <si>
+    <t>EAM_2500</t>
+  </si>
+  <si>
+    <t>EAM_2506</t>
+  </si>
+  <si>
+    <t>EAM_2513</t>
+  </si>
+  <si>
+    <t>EAM_2520</t>
+  </si>
+  <si>
+    <t>EAM_2526</t>
+  </si>
+  <si>
+    <t>EAM_2544</t>
+  </si>
+  <si>
+    <t>EAM_2563</t>
+  </si>
+  <si>
+    <t>EAM_2607</t>
+  </si>
+  <si>
+    <t>EAM_2608</t>
+  </si>
+  <si>
+    <t>EAM_2609</t>
+  </si>
+  <si>
+    <t>EAM_2610</t>
+  </si>
+  <si>
+    <t>EAM_2615</t>
+  </si>
+  <si>
+    <t>EAM_2627</t>
+  </si>
+  <si>
+    <t>EAM_2634</t>
+  </si>
+  <si>
+    <t>EAM_2635</t>
+  </si>
+  <si>
+    <t>EAM_2638</t>
+  </si>
+  <si>
+    <t>EAM_2640</t>
+  </si>
+  <si>
+    <t>EAM_2703</t>
+  </si>
+  <si>
+    <t>EAM_2704</t>
+  </si>
+  <si>
+    <t>EAM_2705</t>
+  </si>
+  <si>
+    <t>EAM_2707</t>
+  </si>
+  <si>
+    <t>EAM_2720</t>
+  </si>
+  <si>
+    <t>EAM_2739</t>
+  </si>
+  <si>
+    <t>EAM_2740</t>
+  </si>
+  <si>
+    <t>EAM_2741</t>
+  </si>
+  <si>
+    <t>EAM_2744</t>
+  </si>
+  <si>
+    <t>EAM_2746</t>
+  </si>
+  <si>
+    <t>EAM_2754</t>
+  </si>
+  <si>
+    <t>EAM_2757</t>
+  </si>
+  <si>
+    <t>EAM_2775</t>
+  </si>
+  <si>
+    <t>EAM_2777</t>
+  </si>
+  <si>
+    <t>EAM_2778</t>
+  </si>
+  <si>
+    <t>EAM_2779</t>
+  </si>
+  <si>
+    <t>EAM_2782</t>
+  </si>
+  <si>
+    <t>EAM_2786</t>
+  </si>
+  <si>
+    <t>EAM_2794</t>
+  </si>
+  <si>
+    <t>EAM_2811</t>
+  </si>
+  <si>
+    <t>EAM_2812</t>
+  </si>
+  <si>
+    <t>EAM_2813</t>
+  </si>
+  <si>
+    <t>EAM_2823</t>
+  </si>
+  <si>
+    <t>EAM_2830</t>
+  </si>
+  <si>
+    <t>EAM_2916</t>
+  </si>
+  <si>
+    <t>EAM_2934</t>
+  </si>
+  <si>
+    <t>EAM_2960</t>
+  </si>
+  <si>
+    <t>EAM_2963</t>
+  </si>
+  <si>
+    <t>EAM_2964</t>
+  </si>
+  <si>
+    <t>EAM_2965</t>
+  </si>
+  <si>
+    <t>EAM_2985</t>
+  </si>
+  <si>
+    <t>EAM_2988</t>
+  </si>
+  <si>
+    <t>EAM_2995</t>
+  </si>
+  <si>
+    <t>EAM_3000</t>
+  </si>
+  <si>
+    <t>EAM_3038</t>
+  </si>
+  <si>
+    <t>EAM_3039</t>
+  </si>
+  <si>
+    <t>EAM_3040</t>
+  </si>
+  <si>
+    <t>EAM_3044</t>
+  </si>
+  <si>
+    <t>EAM_3052</t>
+  </si>
+  <si>
+    <t>EAM_3058</t>
+  </si>
+  <si>
+    <t>EAM_3060</t>
+  </si>
+  <si>
+    <t>EAM_3067</t>
+  </si>
+  <si>
+    <t>EAM_3069</t>
+  </si>
+  <si>
+    <t>EAM_3074</t>
+  </si>
+  <si>
+    <t>EAM_3082</t>
+  </si>
+  <si>
+    <t>EAM_3083</t>
+  </si>
+  <si>
+    <t>EAM_3084</t>
+  </si>
+  <si>
+    <t>EAM_3085</t>
+  </si>
+  <si>
+    <t>EAM_3086</t>
+  </si>
+  <si>
+    <t>EAM_3088</t>
+  </si>
+  <si>
+    <t>EAM_3099</t>
+  </si>
+  <si>
+    <t>EAM_3100</t>
+  </si>
+  <si>
+    <t>EAM_3104</t>
+  </si>
+  <si>
+    <t>EAM_3114</t>
+  </si>
+  <si>
+    <t>EAM_3116</t>
+  </si>
+  <si>
+    <t>EAM_3120</t>
+  </si>
+  <si>
+    <t>EAM_3121</t>
+  </si>
+  <si>
+    <t>EAM_3129</t>
+  </si>
+  <si>
+    <t>EAM_3130</t>
+  </si>
+  <si>
+    <t>EAM_3135</t>
+  </si>
+  <si>
+    <t>EAM_3146</t>
+  </si>
+  <si>
+    <t>EAM_3157</t>
+  </si>
+  <si>
+    <t>EAM_3158</t>
+  </si>
+  <si>
+    <t>EAM_3159</t>
+  </si>
+  <si>
+    <t>EAM_3160</t>
+  </si>
+  <si>
+    <t>EAM_3162</t>
+  </si>
+  <si>
+    <t>EAM_3163</t>
+  </si>
+  <si>
+    <t>EAM_3164</t>
+  </si>
+  <si>
+    <t>EAM_3173</t>
+  </si>
+  <si>
+    <t>EAM_3174</t>
+  </si>
+  <si>
+    <t>EAM_3175</t>
+  </si>
+  <si>
+    <t>EAM_3177</t>
+  </si>
+  <si>
+    <t>EAM_3178</t>
+  </si>
+  <si>
+    <t>EAM_3179</t>
+  </si>
+  <si>
+    <t>EAM_3181</t>
+  </si>
+  <si>
+    <t>EAM_3183</t>
+  </si>
+  <si>
+    <t>EAM_3184</t>
+  </si>
+  <si>
+    <t>EAM_3188</t>
+  </si>
+  <si>
+    <t>EAM_3200</t>
+  </si>
+  <si>
+    <t>EAM_3203</t>
+  </si>
+  <si>
+    <t>EAM_3206</t>
+  </si>
+  <si>
+    <t>EAM_3207</t>
+  </si>
+  <si>
+    <t>EAM_3208</t>
+  </si>
+  <si>
+    <t>EAM_3212</t>
+  </si>
+  <si>
+    <t>EAM_3229</t>
+  </si>
+  <si>
+    <t>EAM_3234</t>
+  </si>
+  <si>
+    <t>EAM_3246</t>
+  </si>
+  <si>
+    <t>EAM_3249</t>
+  </si>
+  <si>
+    <t>EAM_3255</t>
+  </si>
+  <si>
+    <t>EAM_3259</t>
+  </si>
+  <si>
+    <t>EAM_3265</t>
+  </si>
+  <si>
+    <t>EAM_3268</t>
+  </si>
+  <si>
+    <t>EAM_3269</t>
+  </si>
+  <si>
+    <t>EAM_3270</t>
+  </si>
+  <si>
+    <t>EAM_3271</t>
+  </si>
+  <si>
+    <t>EAM_3272</t>
+  </si>
+  <si>
+    <t>EAM_3292</t>
+  </si>
+  <si>
+    <t>EAM_3293</t>
+  </si>
+  <si>
+    <t>EAM_3294</t>
+  </si>
+  <si>
+    <t>EAM_3295</t>
+  </si>
+  <si>
+    <t>EAM_3299</t>
+  </si>
+  <si>
+    <t>EAM_3325</t>
+  </si>
+  <si>
+    <t>EAM_3327</t>
+  </si>
+  <si>
+    <t>EAM_3334</t>
+  </si>
+  <si>
+    <t>EAM_3337</t>
+  </si>
+  <si>
+    <t>EAM_3349</t>
+  </si>
+  <si>
+    <t>EAM_3356</t>
+  </si>
+  <si>
+    <t>EAM_3374</t>
+  </si>
+  <si>
+    <t>EAM_3377</t>
+  </si>
+  <si>
+    <t>EAM_3382</t>
+  </si>
+  <si>
+    <t>EAM_3385</t>
+  </si>
+  <si>
+    <t>EAM_3398</t>
+  </si>
+  <si>
+    <t>EAM_3412</t>
+  </si>
+  <si>
+    <t>EAM_3415</t>
+  </si>
+  <si>
+    <t>EAM_3416</t>
+  </si>
+  <si>
+    <t>EAM_3417</t>
+  </si>
+  <si>
+    <t>EAM_3430</t>
+  </si>
+  <si>
+    <t>EAM_3447</t>
+  </si>
+  <si>
+    <t>EAM_3448</t>
+  </si>
+  <si>
+    <t>EAM_3449</t>
+  </si>
+  <si>
+    <t>EAM_3450</t>
+  </si>
+  <si>
+    <t>EAM_3452</t>
+  </si>
+  <si>
+    <t>EAM_3453</t>
+  </si>
+  <si>
+    <t>EAM_3459</t>
+  </si>
+  <si>
+    <t>EAM_3474</t>
+  </si>
+  <si>
+    <t>EAM_3476</t>
+  </si>
+  <si>
+    <t>EAM_t035</t>
+  </si>
+  <si>
     <t>EAM_0557</t>
   </si>
   <si>
@@ -8955,1821 +10770,6 @@
   </si>
   <si>
     <t>EAM_3059</t>
-  </si>
-  <si>
-    <t>EAM_0101</t>
-  </si>
-  <si>
-    <t>EAM_0103</t>
-  </si>
-  <si>
-    <t>EAM_0111</t>
-  </si>
-  <si>
-    <t>EAM_0143</t>
-  </si>
-  <si>
-    <t>EAM_0228</t>
-  </si>
-  <si>
-    <t>EAM_0229</t>
-  </si>
-  <si>
-    <t>EAM_0255</t>
-  </si>
-  <si>
-    <t>EAM_0270</t>
-  </si>
-  <si>
-    <t>EAM_0419</t>
-  </si>
-  <si>
-    <t>EAM_0425</t>
-  </si>
-  <si>
-    <t>EAM_0640</t>
-  </si>
-  <si>
-    <t>EAM_0649</t>
-  </si>
-  <si>
-    <t>EAM_0704</t>
-  </si>
-  <si>
-    <t>EAM_0819</t>
-  </si>
-  <si>
-    <t>EAM_0827</t>
-  </si>
-  <si>
-    <t>EAM_0933</t>
-  </si>
-  <si>
-    <t>EAM_0955</t>
-  </si>
-  <si>
-    <t>EAM_0988</t>
-  </si>
-  <si>
-    <t>EAM_0993</t>
-  </si>
-  <si>
-    <t>EAM_1029</t>
-  </si>
-  <si>
-    <t>EAM_1043</t>
-  </si>
-  <si>
-    <t>EAM_1044</t>
-  </si>
-  <si>
-    <t>EAM_1046</t>
-  </si>
-  <si>
-    <t>EAM_1047</t>
-  </si>
-  <si>
-    <t>EAM_1083</t>
-  </si>
-  <si>
-    <t>EAM_1117</t>
-  </si>
-  <si>
-    <t>EAM_1151</t>
-  </si>
-  <si>
-    <t>EAM_1159</t>
-  </si>
-  <si>
-    <t>EAM_1160</t>
-  </si>
-  <si>
-    <t>EAM_1231</t>
-  </si>
-  <si>
-    <t>EAM_1272</t>
-  </si>
-  <si>
-    <t>EAM_1274</t>
-  </si>
-  <si>
-    <t>EAM_1321</t>
-  </si>
-  <si>
-    <t>EAM_1340</t>
-  </si>
-  <si>
-    <t>EAM_1353</t>
-  </si>
-  <si>
-    <t>EAM_1377</t>
-  </si>
-  <si>
-    <t>EAM_1386</t>
-  </si>
-  <si>
-    <t>EAM_1428</t>
-  </si>
-  <si>
-    <t>EAM_1432</t>
-  </si>
-  <si>
-    <t>EAM_1537</t>
-  </si>
-  <si>
-    <t>EAM_1538</t>
-  </si>
-  <si>
-    <t>EAM_1539</t>
-  </si>
-  <si>
-    <t>EAM_1581</t>
-  </si>
-  <si>
-    <t>EAM_1627</t>
-  </si>
-  <si>
-    <t>EAM_1628</t>
-  </si>
-  <si>
-    <t>EAM_1651</t>
-  </si>
-  <si>
-    <t>EAM_1683</t>
-  </si>
-  <si>
-    <t>EAM_1704</t>
-  </si>
-  <si>
-    <t>EAM_1711</t>
-  </si>
-  <si>
-    <t>EAM_1736</t>
-  </si>
-  <si>
-    <t>EAM_1931</t>
-  </si>
-  <si>
-    <t>EAM_1935</t>
-  </si>
-  <si>
-    <t>EAM_1964</t>
-  </si>
-  <si>
-    <t>EAM_2055</t>
-  </si>
-  <si>
-    <t>EAM_2061</t>
-  </si>
-  <si>
-    <t>EAM_2262</t>
-  </si>
-  <si>
-    <t>EAM_2336</t>
-  </si>
-  <si>
-    <t>EAM_2378</t>
-  </si>
-  <si>
-    <t>EAM_2388</t>
-  </si>
-  <si>
-    <t>EAM_2392</t>
-  </si>
-  <si>
-    <t>EAM_2413</t>
-  </si>
-  <si>
-    <t>EAM_2440</t>
-  </si>
-  <si>
-    <t>EAM_2447</t>
-  </si>
-  <si>
-    <t>EAM_2514</t>
-  </si>
-  <si>
-    <t>EAM_2521</t>
-  </si>
-  <si>
-    <t>EAM_2522</t>
-  </si>
-  <si>
-    <t>EAM_2630</t>
-  </si>
-  <si>
-    <t>EAM_2637</t>
-  </si>
-  <si>
-    <t>EAM_2679</t>
-  </si>
-  <si>
-    <t>EAM_2680</t>
-  </si>
-  <si>
-    <t>EAM_2706</t>
-  </si>
-  <si>
-    <t>EAM_2796</t>
-  </si>
-  <si>
-    <t>EAM_2824</t>
-  </si>
-  <si>
-    <t>EAM_2825</t>
-  </si>
-  <si>
-    <t>EAM_2940</t>
-  </si>
-  <si>
-    <t>EAM_2958</t>
-  </si>
-  <si>
-    <t>EAM_3004</t>
-  </si>
-  <si>
-    <t>EAM_3005</t>
-  </si>
-  <si>
-    <t>EAM_3065</t>
-  </si>
-  <si>
-    <t>EAM_3071</t>
-  </si>
-  <si>
-    <t>EAM_3078</t>
-  </si>
-  <si>
-    <t>EAM_3079</t>
-  </si>
-  <si>
-    <t>EAM_3201</t>
-  </si>
-  <si>
-    <t>EAM_3250</t>
-  </si>
-  <si>
-    <t>EAM_3311</t>
-  </si>
-  <si>
-    <t>EAM_3312</t>
-  </si>
-  <si>
-    <t>EAM_3324</t>
-  </si>
-  <si>
-    <t>EAM_3446</t>
-  </si>
-  <si>
-    <t>EAM_3471</t>
-  </si>
-  <si>
-    <t>EAM_3472</t>
-  </si>
-  <si>
-    <t>EAM_2194</t>
-  </si>
-  <si>
-    <t>EAM_3066</t>
-  </si>
-  <si>
-    <t>EAM_0003</t>
-  </si>
-  <si>
-    <t>EAM_0007</t>
-  </si>
-  <si>
-    <t>EAM_0010</t>
-  </si>
-  <si>
-    <t>EAM_0013</t>
-  </si>
-  <si>
-    <t>EAM_0026</t>
-  </si>
-  <si>
-    <t>EAM_0028</t>
-  </si>
-  <si>
-    <t>EAM_0029</t>
-  </si>
-  <si>
-    <t>EAM_0033</t>
-  </si>
-  <si>
-    <t>EAM_0045</t>
-  </si>
-  <si>
-    <t>EAM_0060</t>
-  </si>
-  <si>
-    <t>EAM_0071</t>
-  </si>
-  <si>
-    <t>EAM_0099</t>
-  </si>
-  <si>
-    <t>EAM_0100</t>
-  </si>
-  <si>
-    <t>EAM_0104</t>
-  </si>
-  <si>
-    <t>EAM_0121</t>
-  </si>
-  <si>
-    <t>EAM_0127</t>
-  </si>
-  <si>
-    <t>EAM_0134</t>
-  </si>
-  <si>
-    <t>EAM_0144</t>
-  </si>
-  <si>
-    <t>EAM_0154</t>
-  </si>
-  <si>
-    <t>EAM_0162</t>
-  </si>
-  <si>
-    <t>EAM_0163</t>
-  </si>
-  <si>
-    <t>EAM_0165</t>
-  </si>
-  <si>
-    <t>EAM_0177</t>
-  </si>
-  <si>
-    <t>EAM_0178</t>
-  </si>
-  <si>
-    <t>EAM_0179</t>
-  </si>
-  <si>
-    <t>EAM_0180</t>
-  </si>
-  <si>
-    <t>EAM_0181</t>
-  </si>
-  <si>
-    <t>EAM_0187</t>
-  </si>
-  <si>
-    <t>EAM_0193</t>
-  </si>
-  <si>
-    <t>EAM_0202</t>
-  </si>
-  <si>
-    <t>EAM_0203</t>
-  </si>
-  <si>
-    <t>EAM_0204</t>
-  </si>
-  <si>
-    <t>EAM_0209</t>
-  </si>
-  <si>
-    <t>EAM_0210</t>
-  </si>
-  <si>
-    <t>EAM_0212</t>
-  </si>
-  <si>
-    <t>EAM_0213</t>
-  </si>
-  <si>
-    <t>EAM_0214</t>
-  </si>
-  <si>
-    <t>EAM_0215</t>
-  </si>
-  <si>
-    <t>EAM_0216</t>
-  </si>
-  <si>
-    <t>EAM_0222</t>
-  </si>
-  <si>
-    <t>EAM_0223</t>
-  </si>
-  <si>
-    <t>EAM_0226</t>
-  </si>
-  <si>
-    <t>EAM_0227</t>
-  </si>
-  <si>
-    <t>EAM_0254</t>
-  </si>
-  <si>
-    <t>EAM_0262</t>
-  </si>
-  <si>
-    <t>EAM_0266</t>
-  </si>
-  <si>
-    <t>EAM_0267</t>
-  </si>
-  <si>
-    <t>EAM_0268</t>
-  </si>
-  <si>
-    <t>EAM_0281</t>
-  </si>
-  <si>
-    <t>EAM_0292</t>
-  </si>
-  <si>
-    <t>EAM_0307</t>
-  </si>
-  <si>
-    <t>EAM_0308</t>
-  </si>
-  <si>
-    <t>EAM_0321</t>
-  </si>
-  <si>
-    <t>EAM_0338</t>
-  </si>
-  <si>
-    <t>EAM_0343</t>
-  </si>
-  <si>
-    <t>EAM_0344</t>
-  </si>
-  <si>
-    <t>EAM_0347</t>
-  </si>
-  <si>
-    <t>EAM_0349</t>
-  </si>
-  <si>
-    <t>EAM_0350</t>
-  </si>
-  <si>
-    <t>EAM_0351</t>
-  </si>
-  <si>
-    <t>EAM_0356</t>
-  </si>
-  <si>
-    <t>EAM_0420</t>
-  </si>
-  <si>
-    <t>EAM_0424</t>
-  </si>
-  <si>
-    <t>EAM_0426</t>
-  </si>
-  <si>
-    <t>EAM_0431</t>
-  </si>
-  <si>
-    <t>EAM_0433</t>
-  </si>
-  <si>
-    <t>EAM_0435</t>
-  </si>
-  <si>
-    <t>EAM_0438</t>
-  </si>
-  <si>
-    <t>EAM_0441</t>
-  </si>
-  <si>
-    <t>EAM_0443</t>
-  </si>
-  <si>
-    <t>EAM_0451</t>
-  </si>
-  <si>
-    <t>EAM_0455</t>
-  </si>
-  <si>
-    <t>EAM_0457</t>
-  </si>
-  <si>
-    <t>EAM_0458</t>
-  </si>
-  <si>
-    <t>EAM_0460</t>
-  </si>
-  <si>
-    <t>EAM_0465</t>
-  </si>
-  <si>
-    <t>EAM_0466</t>
-  </si>
-  <si>
-    <t>EAM_0467</t>
-  </si>
-  <si>
-    <t>EAM_0498</t>
-  </si>
-  <si>
-    <t>EAM_0512A</t>
-  </si>
-  <si>
-    <t>EAM_0517</t>
-  </si>
-  <si>
-    <t>EAM_0558</t>
-  </si>
-  <si>
-    <t>EAM_0559</t>
-  </si>
-  <si>
-    <t>EAM_0600</t>
-  </si>
-  <si>
-    <t>EAM_0610</t>
-  </si>
-  <si>
-    <t>EAM_0611</t>
-  </si>
-  <si>
-    <t>EAM_0615</t>
-  </si>
-  <si>
-    <t>EAM_0616</t>
-  </si>
-  <si>
-    <t>EAM_0617</t>
-  </si>
-  <si>
-    <t>EAM_0618</t>
-  </si>
-  <si>
-    <t>EAM_0625</t>
-  </si>
-  <si>
-    <t>EAM_0628</t>
-  </si>
-  <si>
-    <t>EAM_0633</t>
-  </si>
-  <si>
-    <t>EAM_0636</t>
-  </si>
-  <si>
-    <t>EAM_0650</t>
-  </si>
-  <si>
-    <t>EAM_0655</t>
-  </si>
-  <si>
-    <t>EAM_0659</t>
-  </si>
-  <si>
-    <t>EAM_0661</t>
-  </si>
-  <si>
-    <t>EAM_0669</t>
-  </si>
-  <si>
-    <t>EAM_0672</t>
-  </si>
-  <si>
-    <t>EAM_0689</t>
-  </si>
-  <si>
-    <t>EAM_0690</t>
-  </si>
-  <si>
-    <t>EAM_0692</t>
-  </si>
-  <si>
-    <t>EAM_0702</t>
-  </si>
-  <si>
-    <t>EAM_0703</t>
-  </si>
-  <si>
-    <t>EAM_0709</t>
-  </si>
-  <si>
-    <t>EAM_0725</t>
-  </si>
-  <si>
-    <t>EAM_0728</t>
-  </si>
-  <si>
-    <t>EAM_0747</t>
-  </si>
-  <si>
-    <t>EAM_0748</t>
-  </si>
-  <si>
-    <t>EAM_0762</t>
-  </si>
-  <si>
-    <t>EAM_0772</t>
-  </si>
-  <si>
-    <t>EAM_0783</t>
-  </si>
-  <si>
-    <t>EAM_0792</t>
-  </si>
-  <si>
-    <t>EAM_0793</t>
-  </si>
-  <si>
-    <t>EAM_0794</t>
-  </si>
-  <si>
-    <t>EAM_0813</t>
-  </si>
-  <si>
-    <t>EAM_0814</t>
-  </si>
-  <si>
-    <t>EAM_0820</t>
-  </si>
-  <si>
-    <t>EAM_0822</t>
-  </si>
-  <si>
-    <t>EAM_0823</t>
-  </si>
-  <si>
-    <t>EAM_0826</t>
-  </si>
-  <si>
-    <t>EAM_0828</t>
-  </si>
-  <si>
-    <t>EAM_0829</t>
-  </si>
-  <si>
-    <t>EAM_0834</t>
-  </si>
-  <si>
-    <t>EAM_0835</t>
-  </si>
-  <si>
-    <t>EAM_0840</t>
-  </si>
-  <si>
-    <t>EAM_0883</t>
-  </si>
-  <si>
-    <t>EAM_0890</t>
-  </si>
-  <si>
-    <t>EAM_0892</t>
-  </si>
-  <si>
-    <t>EAM_0927</t>
-  </si>
-  <si>
-    <t>EAM_0937</t>
-  </si>
-  <si>
-    <t>EAM_0938</t>
-  </si>
-  <si>
-    <t>EAM_0967</t>
-  </si>
-  <si>
-    <t>EAM_0968</t>
-  </si>
-  <si>
-    <t>EAM_0974</t>
-  </si>
-  <si>
-    <t>EAM_0976</t>
-  </si>
-  <si>
-    <t>EAM_0978</t>
-  </si>
-  <si>
-    <t>EAM_0981</t>
-  </si>
-  <si>
-    <t>EAM_0984</t>
-  </si>
-  <si>
-    <t>EAM_0989</t>
-  </si>
-  <si>
-    <t>EAM_0990</t>
-  </si>
-  <si>
-    <t>EAM_0991</t>
-  </si>
-  <si>
-    <t>EAM_0994</t>
-  </si>
-  <si>
-    <t>EAM_1002</t>
-  </si>
-  <si>
-    <t>EAM_1003</t>
-  </si>
-  <si>
-    <t>EAM_1007</t>
-  </si>
-  <si>
-    <t>EAM_1016</t>
-  </si>
-  <si>
-    <t>EAM_1020</t>
-  </si>
-  <si>
-    <t>EAM_1024</t>
-  </si>
-  <si>
-    <t>EAM_1026</t>
-  </si>
-  <si>
-    <t>EAM_1027</t>
-  </si>
-  <si>
-    <t>EAM_1031</t>
-  </si>
-  <si>
-    <t>EAM_1032</t>
-  </si>
-  <si>
-    <t>EAM_1033</t>
-  </si>
-  <si>
-    <t>EAM_1034</t>
-  </si>
-  <si>
-    <t>EAM_1049</t>
-  </si>
-  <si>
-    <t>EAM_1057</t>
-  </si>
-  <si>
-    <t>EAM_1058</t>
-  </si>
-  <si>
-    <t>EAM_1063</t>
-  </si>
-  <si>
-    <t>EAM_1077</t>
-  </si>
-  <si>
-    <t>EAM_1079</t>
-  </si>
-  <si>
-    <t>EAM_1080</t>
-  </si>
-  <si>
-    <t>EAM_1082</t>
-  </si>
-  <si>
-    <t>EAM_1084</t>
-  </si>
-  <si>
-    <t>EAM_1119</t>
-  </si>
-  <si>
-    <t>EAM_1123</t>
-  </si>
-  <si>
-    <t>EAM_1131</t>
-  </si>
-  <si>
-    <t>EAM_1138</t>
-  </si>
-  <si>
-    <t>EAM_1141</t>
-  </si>
-  <si>
-    <t>EAM_1142</t>
-  </si>
-  <si>
-    <t>EAM_1148</t>
-  </si>
-  <si>
-    <t>EAM_1149</t>
-  </si>
-  <si>
-    <t>EAM_1158</t>
-  </si>
-  <si>
-    <t>EAM_1161</t>
-  </si>
-  <si>
-    <t>EAM_1168</t>
-  </si>
-  <si>
-    <t>EAM_1170</t>
-  </si>
-  <si>
-    <t>EAM_1172</t>
-  </si>
-  <si>
-    <t>EAM_1180</t>
-  </si>
-  <si>
-    <t>EAM_1181</t>
-  </si>
-  <si>
-    <t>EAM_1188</t>
-  </si>
-  <si>
-    <t>EAM_1200</t>
-  </si>
-  <si>
-    <t>EAM_1203</t>
-  </si>
-  <si>
-    <t>EAM_1209</t>
-  </si>
-  <si>
-    <t>EAM_1216</t>
-  </si>
-  <si>
-    <t>EAM_1217</t>
-  </si>
-  <si>
-    <t>EAM_1224</t>
-  </si>
-  <si>
-    <t>EAM_1228</t>
-  </si>
-  <si>
-    <t>EAM_1229</t>
-  </si>
-  <si>
-    <t>EAM_1230</t>
-  </si>
-  <si>
-    <t>EAM_1232</t>
-  </si>
-  <si>
-    <t>EAM_1235</t>
-  </si>
-  <si>
-    <t>EAM_1236</t>
-  </si>
-  <si>
-    <t>EAM_1247</t>
-  </si>
-  <si>
-    <t>EAM_1283</t>
-  </si>
-  <si>
-    <t>EAM_1284</t>
-  </si>
-  <si>
-    <t>EAM_1285</t>
-  </si>
-  <si>
-    <t>EAM_1286</t>
-  </si>
-  <si>
-    <t>EAM_1287</t>
-  </si>
-  <si>
-    <t>EAM_1296</t>
-  </si>
-  <si>
-    <t>EAM_1312</t>
-  </si>
-  <si>
-    <t>EAM_1317</t>
-  </si>
-  <si>
-    <t>EAM_1322</t>
-  </si>
-  <si>
-    <t>EAM_1323</t>
-  </si>
-  <si>
-    <t>EAM_1325</t>
-  </si>
-  <si>
-    <t>EAM_1326</t>
-  </si>
-  <si>
-    <t>EAM_1328</t>
-  </si>
-  <si>
-    <t>EAM_1329</t>
-  </si>
-  <si>
-    <t>EAM_1332</t>
-  </si>
-  <si>
-    <t>EAM_1341</t>
-  </si>
-  <si>
-    <t>EAM_1352</t>
-  </si>
-  <si>
-    <t>EAM_1354</t>
-  </si>
-  <si>
-    <t>EAM_1357</t>
-  </si>
-  <si>
-    <t>EAM_1360</t>
-  </si>
-  <si>
-    <t>EAM_1367</t>
-  </si>
-  <si>
-    <t>EAM_1369</t>
-  </si>
-  <si>
-    <t>EAM_1380</t>
-  </si>
-  <si>
-    <t>EAM_1382</t>
-  </si>
-  <si>
-    <t>EAM_1391</t>
-  </si>
-  <si>
-    <t>EAM_1403</t>
-  </si>
-  <si>
-    <t>EAM_1408</t>
-  </si>
-  <si>
-    <t>EAM_1417</t>
-  </si>
-  <si>
-    <t>EAM_1418</t>
-  </si>
-  <si>
-    <t>EAM_1421</t>
-  </si>
-  <si>
-    <t>EAM_1422</t>
-  </si>
-  <si>
-    <t>EAM_1450</t>
-  </si>
-  <si>
-    <t>EAM_1453</t>
-  </si>
-  <si>
-    <t>EAM_1459</t>
-  </si>
-  <si>
-    <t>EAM_1466</t>
-  </si>
-  <si>
-    <t>EAM_1469</t>
-  </si>
-  <si>
-    <t>EAM_1475</t>
-  </si>
-  <si>
-    <t>EAM_1511</t>
-  </si>
-  <si>
-    <t>EAM_1512</t>
-  </si>
-  <si>
-    <t>EAM_1517</t>
-  </si>
-  <si>
-    <t>EAM_1532</t>
-  </si>
-  <si>
-    <t>EAM_1536</t>
-  </si>
-  <si>
-    <t>EAM_1540</t>
-  </si>
-  <si>
-    <t>EAM_1542</t>
-  </si>
-  <si>
-    <t>EAM_1543</t>
-  </si>
-  <si>
-    <t>EAM_1544</t>
-  </si>
-  <si>
-    <t>EAM_1604</t>
-  </si>
-  <si>
-    <t>EAM_1606</t>
-  </si>
-  <si>
-    <t>EAM_1610</t>
-  </si>
-  <si>
-    <t>EAM_1616</t>
-  </si>
-  <si>
-    <t>EAM_1617</t>
-  </si>
-  <si>
-    <t>EAM_1622</t>
-  </si>
-  <si>
-    <t>EAM_1629</t>
-  </si>
-  <si>
-    <t>EAM_1630</t>
-  </si>
-  <si>
-    <t>EAM_1632</t>
-  </si>
-  <si>
-    <t>EAM_1634</t>
-  </si>
-  <si>
-    <t>EAM_1650</t>
-  </si>
-  <si>
-    <t>EAM_1652</t>
-  </si>
-  <si>
-    <t>EAM_1653</t>
-  </si>
-  <si>
-    <t>EAM_1654</t>
-  </si>
-  <si>
-    <t>EAM_1657</t>
-  </si>
-  <si>
-    <t>EAM_1660</t>
-  </si>
-  <si>
-    <t>EAM_1665</t>
-  </si>
-  <si>
-    <t>EAM_1680</t>
-  </si>
-  <si>
-    <t>EAM_1681</t>
-  </si>
-  <si>
-    <t>EAM_1687</t>
-  </si>
-  <si>
-    <t>EAM_1692</t>
-  </si>
-  <si>
-    <t>EAM_1695</t>
-  </si>
-  <si>
-    <t>EAM_1703</t>
-  </si>
-  <si>
-    <t>EAM_1706</t>
-  </si>
-  <si>
-    <t>EAM_1712</t>
-  </si>
-  <si>
-    <t>EAM_1737</t>
-  </si>
-  <si>
-    <t>EAM_1738</t>
-  </si>
-  <si>
-    <t>EAM_1742</t>
-  </si>
-  <si>
-    <t>EAM_1744</t>
-  </si>
-  <si>
-    <t>EAM_1754</t>
-  </si>
-  <si>
-    <t>EAM_1776</t>
-  </si>
-  <si>
-    <t>EAM_1786</t>
-  </si>
-  <si>
-    <t>EAM_1815</t>
-  </si>
-  <si>
-    <t>EAM_1818</t>
-  </si>
-  <si>
-    <t>EAM_1820</t>
-  </si>
-  <si>
-    <t>EAM_1823</t>
-  </si>
-  <si>
-    <t>EAM_1830</t>
-  </si>
-  <si>
-    <t>EAM_1831</t>
-  </si>
-  <si>
-    <t>EAM_1832</t>
-  </si>
-  <si>
-    <t>EAM_1835</t>
-  </si>
-  <si>
-    <t>EAM_1842</t>
-  </si>
-  <si>
-    <t>EAM_1849</t>
-  </si>
-  <si>
-    <t>EAM_1854</t>
-  </si>
-  <si>
-    <t>EAM_1857</t>
-  </si>
-  <si>
-    <t>EAM_1862</t>
-  </si>
-  <si>
-    <t>EAM_1866</t>
-  </si>
-  <si>
-    <t>EAM_1867</t>
-  </si>
-  <si>
-    <t>EAM_1868</t>
-  </si>
-  <si>
-    <t>EAM_1869</t>
-  </si>
-  <si>
-    <t>EAM_1870</t>
-  </si>
-  <si>
-    <t>EAM_1884</t>
-  </si>
-  <si>
-    <t>EAM_1885</t>
-  </si>
-  <si>
-    <t>EAM_1900</t>
-  </si>
-  <si>
-    <t>EAM_1917</t>
-  </si>
-  <si>
-    <t>EAM_1921</t>
-  </si>
-  <si>
-    <t>EAM_1926</t>
-  </si>
-  <si>
-    <t>EAM_1933</t>
-  </si>
-  <si>
-    <t>EAM_1936</t>
-  </si>
-  <si>
-    <t>EAM_1943</t>
-  </si>
-  <si>
-    <t>EAM_1945</t>
-  </si>
-  <si>
-    <t>EAM_1956</t>
-  </si>
-  <si>
-    <t>EAM_1957</t>
-  </si>
-  <si>
-    <t>EAM_1959</t>
-  </si>
-  <si>
-    <t>EAM_1976</t>
-  </si>
-  <si>
-    <t>EAM_1984</t>
-  </si>
-  <si>
-    <t>EAM_1992</t>
-  </si>
-  <si>
-    <t>EAM_1995</t>
-  </si>
-  <si>
-    <t>EAM_1996</t>
-  </si>
-  <si>
-    <t>EAM_2006</t>
-  </si>
-  <si>
-    <t>EAM_2016</t>
-  </si>
-  <si>
-    <t>EAM_2017</t>
-  </si>
-  <si>
-    <t>EAM_2033</t>
-  </si>
-  <si>
-    <t>EAM_2034</t>
-  </si>
-  <si>
-    <t>EAM_2056</t>
-  </si>
-  <si>
-    <t>EAM_2060</t>
-  </si>
-  <si>
-    <t>EAM_2076</t>
-  </si>
-  <si>
-    <t>EAM_2081</t>
-  </si>
-  <si>
-    <t>EAM_2120</t>
-  </si>
-  <si>
-    <t>EAM_2132</t>
-  </si>
-  <si>
-    <t>EAM_2150</t>
-  </si>
-  <si>
-    <t>EAM_2161</t>
-  </si>
-  <si>
-    <t>EAM_2162</t>
-  </si>
-  <si>
-    <t>EAM_2176</t>
-  </si>
-  <si>
-    <t>EAM_2182</t>
-  </si>
-  <si>
-    <t>EAM_2187</t>
-  </si>
-  <si>
-    <t>EAM_2191</t>
-  </si>
-  <si>
-    <t>EAM_2212</t>
-  </si>
-  <si>
-    <t>EAM_2221</t>
-  </si>
-  <si>
-    <t>EAM_2261</t>
-  </si>
-  <si>
-    <t>EAM_2264</t>
-  </si>
-  <si>
-    <t>EAM_2266</t>
-  </si>
-  <si>
-    <t>EAM_2275</t>
-  </si>
-  <si>
-    <t>EAM_2276</t>
-  </si>
-  <si>
-    <t>EAM_2281</t>
-  </si>
-  <si>
-    <t>EAM_2287</t>
-  </si>
-  <si>
-    <t>EAM_2290</t>
-  </si>
-  <si>
-    <t>EAM_2291</t>
-  </si>
-  <si>
-    <t>EAM_2293</t>
-  </si>
-  <si>
-    <t>EAM_2300</t>
-  </si>
-  <si>
-    <t>EAM_2302</t>
-  </si>
-  <si>
-    <t>EAM_2312</t>
-  </si>
-  <si>
-    <t>EAM_2323</t>
-  </si>
-  <si>
-    <t>EAM_2347</t>
-  </si>
-  <si>
-    <t>EAM_2363</t>
-  </si>
-  <si>
-    <t>EAM_2369</t>
-  </si>
-  <si>
-    <t>EAM_2370</t>
-  </si>
-  <si>
-    <t>EAM_2374</t>
-  </si>
-  <si>
-    <t>EAM_2375</t>
-  </si>
-  <si>
-    <t>EAM_2382</t>
-  </si>
-  <si>
-    <t>EAM_2391</t>
-  </si>
-  <si>
-    <t>EAM_2393</t>
-  </si>
-  <si>
-    <t>EAM_2407</t>
-  </si>
-  <si>
-    <t>EAM_2408</t>
-  </si>
-  <si>
-    <t>EAM_2414</t>
-  </si>
-  <si>
-    <t>EAM_2415</t>
-  </si>
-  <si>
-    <t>EAM_2435</t>
-  </si>
-  <si>
-    <t>EAM_2436</t>
-  </si>
-  <si>
-    <t>EAM_2439</t>
-  </si>
-  <si>
-    <t>EAM_2446</t>
-  </si>
-  <si>
-    <t>EAM_2465</t>
-  </si>
-  <si>
-    <t>EAM_2467</t>
-  </si>
-  <si>
-    <t>EAM_2469</t>
-  </si>
-  <si>
-    <t>EAM_2479</t>
-  </si>
-  <si>
-    <t>EAM_2497</t>
-  </si>
-  <si>
-    <t>EAM_2499</t>
-  </si>
-  <si>
-    <t>EAM_2500</t>
-  </si>
-  <si>
-    <t>EAM_2506</t>
-  </si>
-  <si>
-    <t>EAM_2513</t>
-  </si>
-  <si>
-    <t>EAM_2520</t>
-  </si>
-  <si>
-    <t>EAM_2526</t>
-  </si>
-  <si>
-    <t>EAM_2544</t>
-  </si>
-  <si>
-    <t>EAM_2563</t>
-  </si>
-  <si>
-    <t>EAM_2607</t>
-  </si>
-  <si>
-    <t>EAM_2608</t>
-  </si>
-  <si>
-    <t>EAM_2609</t>
-  </si>
-  <si>
-    <t>EAM_2610</t>
-  </si>
-  <si>
-    <t>EAM_2615</t>
-  </si>
-  <si>
-    <t>EAM_2627</t>
-  </si>
-  <si>
-    <t>EAM_2634</t>
-  </si>
-  <si>
-    <t>EAM_2635</t>
-  </si>
-  <si>
-    <t>EAM_2638</t>
-  </si>
-  <si>
-    <t>EAM_2640</t>
-  </si>
-  <si>
-    <t>EAM_2703</t>
-  </si>
-  <si>
-    <t>EAM_2704</t>
-  </si>
-  <si>
-    <t>EAM_2705</t>
-  </si>
-  <si>
-    <t>EAM_2707</t>
-  </si>
-  <si>
-    <t>EAM_2720</t>
-  </si>
-  <si>
-    <t>EAM_2739</t>
-  </si>
-  <si>
-    <t>EAM_2740</t>
-  </si>
-  <si>
-    <t>EAM_2741</t>
-  </si>
-  <si>
-    <t>EAM_2744</t>
-  </si>
-  <si>
-    <t>EAM_2746</t>
-  </si>
-  <si>
-    <t>EAM_2754</t>
-  </si>
-  <si>
-    <t>EAM_2757</t>
-  </si>
-  <si>
-    <t>EAM_2775</t>
-  </si>
-  <si>
-    <t>EAM_2777</t>
-  </si>
-  <si>
-    <t>EAM_2778</t>
-  </si>
-  <si>
-    <t>EAM_2779</t>
-  </si>
-  <si>
-    <t>EAM_2782</t>
-  </si>
-  <si>
-    <t>EAM_2786</t>
-  </si>
-  <si>
-    <t>EAM_2794</t>
-  </si>
-  <si>
-    <t>EAM_2811</t>
-  </si>
-  <si>
-    <t>EAM_2812</t>
-  </si>
-  <si>
-    <t>EAM_2813</t>
-  </si>
-  <si>
-    <t>EAM_2823</t>
-  </si>
-  <si>
-    <t>EAM_2830</t>
-  </si>
-  <si>
-    <t>EAM_2916</t>
-  </si>
-  <si>
-    <t>EAM_2934</t>
-  </si>
-  <si>
-    <t>EAM_2960</t>
-  </si>
-  <si>
-    <t>EAM_2963</t>
-  </si>
-  <si>
-    <t>EAM_2964</t>
-  </si>
-  <si>
-    <t>EAM_2965</t>
-  </si>
-  <si>
-    <t>EAM_2985</t>
-  </si>
-  <si>
-    <t>EAM_2988</t>
-  </si>
-  <si>
-    <t>EAM_2995</t>
-  </si>
-  <si>
-    <t>EAM_3000</t>
-  </si>
-  <si>
-    <t>EAM_3038</t>
-  </si>
-  <si>
-    <t>EAM_3039</t>
-  </si>
-  <si>
-    <t>EAM_3040</t>
-  </si>
-  <si>
-    <t>EAM_3044</t>
-  </si>
-  <si>
-    <t>EAM_3052</t>
-  </si>
-  <si>
-    <t>EAM_3058</t>
-  </si>
-  <si>
-    <t>EAM_3060</t>
-  </si>
-  <si>
-    <t>EAM_3067</t>
-  </si>
-  <si>
-    <t>EAM_3069</t>
-  </si>
-  <si>
-    <t>EAM_3074</t>
-  </si>
-  <si>
-    <t>EAM_3082</t>
-  </si>
-  <si>
-    <t>EAM_3083</t>
-  </si>
-  <si>
-    <t>EAM_3084</t>
-  </si>
-  <si>
-    <t>EAM_3085</t>
-  </si>
-  <si>
-    <t>EAM_3086</t>
-  </si>
-  <si>
-    <t>EAM_3088</t>
-  </si>
-  <si>
-    <t>EAM_3099</t>
-  </si>
-  <si>
-    <t>EAM_3100</t>
-  </si>
-  <si>
-    <t>EAM_3104</t>
-  </si>
-  <si>
-    <t>EAM_3114</t>
-  </si>
-  <si>
-    <t>EAM_3116</t>
-  </si>
-  <si>
-    <t>EAM_3120</t>
-  </si>
-  <si>
-    <t>EAM_3121</t>
-  </si>
-  <si>
-    <t>EAM_3129</t>
-  </si>
-  <si>
-    <t>EAM_3130</t>
-  </si>
-  <si>
-    <t>EAM_3135</t>
-  </si>
-  <si>
-    <t>EAM_3146</t>
-  </si>
-  <si>
-    <t>EAM_3157</t>
-  </si>
-  <si>
-    <t>EAM_3158</t>
-  </si>
-  <si>
-    <t>EAM_3159</t>
-  </si>
-  <si>
-    <t>EAM_3160</t>
-  </si>
-  <si>
-    <t>EAM_3162</t>
-  </si>
-  <si>
-    <t>EAM_3163</t>
-  </si>
-  <si>
-    <t>EAM_3164</t>
-  </si>
-  <si>
-    <t>EAM_3173</t>
-  </si>
-  <si>
-    <t>EAM_3174</t>
-  </si>
-  <si>
-    <t>EAM_3175</t>
-  </si>
-  <si>
-    <t>EAM_3177</t>
-  </si>
-  <si>
-    <t>EAM_3178</t>
-  </si>
-  <si>
-    <t>EAM_3179</t>
-  </si>
-  <si>
-    <t>EAM_3181</t>
-  </si>
-  <si>
-    <t>EAM_3183</t>
-  </si>
-  <si>
-    <t>EAM_3184</t>
-  </si>
-  <si>
-    <t>EAM_3188</t>
-  </si>
-  <si>
-    <t>EAM_3200</t>
-  </si>
-  <si>
-    <t>EAM_3203</t>
-  </si>
-  <si>
-    <t>EAM_3206</t>
-  </si>
-  <si>
-    <t>EAM_3207</t>
-  </si>
-  <si>
-    <t>EAM_3208</t>
-  </si>
-  <si>
-    <t>EAM_3212</t>
-  </si>
-  <si>
-    <t>EAM_3229</t>
-  </si>
-  <si>
-    <t>EAM_3234</t>
-  </si>
-  <si>
-    <t>EAM_3246</t>
-  </si>
-  <si>
-    <t>EAM_3249</t>
-  </si>
-  <si>
-    <t>EAM_3255</t>
-  </si>
-  <si>
-    <t>EAM_3259</t>
-  </si>
-  <si>
-    <t>EAM_3265</t>
-  </si>
-  <si>
-    <t>EAM_3268</t>
-  </si>
-  <si>
-    <t>EAM_3269</t>
-  </si>
-  <si>
-    <t>EAM_3270</t>
-  </si>
-  <si>
-    <t>EAM_3271</t>
-  </si>
-  <si>
-    <t>EAM_3272</t>
-  </si>
-  <si>
-    <t>EAM_3292</t>
-  </si>
-  <si>
-    <t>EAM_3293</t>
-  </si>
-  <si>
-    <t>EAM_3294</t>
-  </si>
-  <si>
-    <t>EAM_3295</t>
-  </si>
-  <si>
-    <t>EAM_3299</t>
-  </si>
-  <si>
-    <t>EAM_3325</t>
-  </si>
-  <si>
-    <t>EAM_3327</t>
-  </si>
-  <si>
-    <t>EAM_3334</t>
-  </si>
-  <si>
-    <t>EAM_3337</t>
-  </si>
-  <si>
-    <t>EAM_3349</t>
-  </si>
-  <si>
-    <t>EAM_3356</t>
-  </si>
-  <si>
-    <t>EAM_3374</t>
-  </si>
-  <si>
-    <t>EAM_3377</t>
-  </si>
-  <si>
-    <t>EAM_3382</t>
-  </si>
-  <si>
-    <t>EAM_3385</t>
-  </si>
-  <si>
-    <t>EAM_3398</t>
-  </si>
-  <si>
-    <t>EAM_3412</t>
-  </si>
-  <si>
-    <t>EAM_3415</t>
-  </si>
-  <si>
-    <t>EAM_3416</t>
-  </si>
-  <si>
-    <t>EAM_3417</t>
-  </si>
-  <si>
-    <t>EAM_3430</t>
-  </si>
-  <si>
-    <t>EAM_3447</t>
-  </si>
-  <si>
-    <t>EAM_3448</t>
-  </si>
-  <si>
-    <t>EAM_3449</t>
-  </si>
-  <si>
-    <t>EAM_3450</t>
-  </si>
-  <si>
-    <t>EAM_3452</t>
-  </si>
-  <si>
-    <t>EAM_3453</t>
-  </si>
-  <si>
-    <t>EAM_3459</t>
-  </si>
-  <si>
-    <t>EAM_3474</t>
-  </si>
-  <si>
-    <t>EAM_3476</t>
-  </si>
-  <si>
-    <t>EAM_t035</t>
-  </si>
-  <si>
-    <t>EAM_0499</t>
-  </si>
-  <si>
-    <t>EAM_0679</t>
-  </si>
-  <si>
-    <t>EAM_1656</t>
-  </si>
-  <si>
-    <t>EAM_2613</t>
   </si>
 </sst>
 </file>
@@ -52737,7 +52737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52750,13 +52750,13 @@
         <v>2971</v>
       </c>
       <c r="B1" t="n">
-        <v>15.849378330373</v>
+        <v>12.60355239786856</v>
       </c>
       <c r="C1" t="n">
-        <v>12.53516519463526</v>
+        <v>22.91036964344128</v>
       </c>
       <c r="D1" t="n">
-        <v>10.16069114470842</v>
+        <v>19.68768898488121</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -52764,13 +52764,13 @@
         <v>2972</v>
       </c>
       <c r="B2" t="n">
-        <v>9.145648312611012</v>
+        <v>12.9683836589698</v>
       </c>
       <c r="C2" t="n">
-        <v>8.103042198233563</v>
+        <v>16.06395158652273</v>
       </c>
       <c r="D2" t="n">
-        <v>8.416630669546436</v>
+        <v>15.99697624190065</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -52778,13 +52778,13 @@
         <v>2973</v>
       </c>
       <c r="B3" t="n">
-        <v>7.0898756660746</v>
+        <v>23.68525754884547</v>
       </c>
       <c r="C3" t="n">
-        <v>9.616126921818777</v>
+        <v>19.03549231272489</v>
       </c>
       <c r="D3" t="n">
-        <v>9.919006479481641</v>
+        <v>21.54384449244061</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -52792,55 +52792,13 @@
         <v>2974</v>
       </c>
       <c r="B4" t="n">
-        <v>16.86429840142096</v>
+        <v>12.87779751332149</v>
       </c>
       <c r="C4" t="n">
-        <v>9.53254824991822</v>
+        <v>19.35803074910043</v>
       </c>
       <c r="D4" t="n">
-        <v>10.07386609071274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2975</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.099822380106572</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.7219496238142</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.19827213822894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B6" t="n">
-        <v>19.0056838365897</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.495093228655545</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.541684665226782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>2977</v>
-      </c>
-      <c r="B7" t="n">
-        <v>19.45932504440497</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.6756624141315</v>
-      </c>
-      <c r="D7" t="n">
-        <v>13.18617710583153</v>
+        <v>17.6390928725702</v>
       </c>
     </row>
   </sheetData>
@@ -52864,7 +52822,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="B1" t="n">
         <v>2.961278863232682</v>
@@ -52878,7 +52836,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="B2" t="n">
         <v>8.266074600355239</v>
@@ -52892,7 +52850,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="B3" t="n">
         <v>1.957015985790409</v>
@@ -52906,7 +52864,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="B4" t="n">
         <v>4.998579040852576</v>
@@ -52920,7 +52878,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="B5" t="n">
         <v>2.745293072824156</v>
@@ -52934,7 +52892,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="B6" t="n">
         <v>3.397158081705151</v>
@@ -52948,7 +52906,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="B7" t="n">
         <v>1.980461811722913</v>
@@ -52962,7 +52920,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="B8" t="n">
         <v>3.92113676731794</v>
@@ -52976,7 +52934,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="B9" t="n">
         <v>4.042984014209591</v>
@@ -52990,7 +52948,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="B10" t="n">
         <v>2.273889875666075</v>
@@ -53004,7 +52962,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="B11" t="n">
         <v>1.549911190053286</v>
@@ -53018,7 +52976,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="B12" t="n">
         <v>4.640142095914743</v>
@@ -53032,7 +52990,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="B13" t="n">
         <v>6.381172291296625</v>
@@ -53046,7 +53004,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="B14" t="n">
         <v>3.021314387211368</v>
@@ -53060,7 +53018,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="B15" t="n">
         <v>2.156305506216696</v>
@@ -53074,7 +53032,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="B16" t="n">
         <v>1.819182948490231</v>
@@ -53088,7 +53046,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="B17" t="n">
         <v>2.549200710479574</v>
@@ -53102,7 +53060,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="B18" t="n">
         <v>1.632326820603908</v>
@@ -53116,7 +53074,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="B19" t="n">
         <v>2.787921847246892</v>
@@ -53130,7 +53088,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="B20" t="n">
         <v>3.56056838365897</v>
@@ -53144,7 +53102,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="B21" t="n">
         <v>1.621314387211368</v>
@@ -53158,7 +53116,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="B22" t="n">
         <v>1.282415630550622</v>
@@ -53172,7 +53130,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="B23" t="n">
         <v>3.743872113676732</v>
@@ -53186,7 +53144,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="B24" t="n">
         <v>2.257904085257549</v>
@@ -53200,7 +53158,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="B25" t="n">
         <v>2.137477797513322</v>
@@ -53214,7 +53172,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="B26" t="n">
         <v>3.236944937833037</v>
@@ -53228,7 +53186,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B27" t="n">
         <v>2.338898756660746</v>
@@ -53242,7 +53200,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="B28" t="n">
         <v>3.916873889875666</v>
@@ -53256,7 +53214,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="B29" t="n">
         <v>2.814564831261101</v>
@@ -53270,7 +53228,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="B30" t="n">
         <v>4.693783303730018</v>
@@ -53284,7 +53242,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="B31" t="n">
         <v>4.305861456483126</v>
@@ -53298,7 +53256,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="B32" t="n">
         <v>5.506927175843694</v>
@@ -53312,7 +53270,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="B33" t="n">
         <v>3.010301953818828</v>
@@ -53326,7 +53284,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="B34" t="n">
         <v>4.245470692717585</v>
@@ -53340,7 +53298,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="B35" t="n">
         <v>2.83943161634103</v>
@@ -53354,7 +53312,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="B36" t="n">
         <v>6.229484902309059</v>
@@ -53368,7 +53326,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="B37" t="n">
         <v>1.665719360568384</v>
@@ -53382,7 +53340,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="B38" t="n">
         <v>3.78898756660746</v>
@@ -53396,7 +53354,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="B39" t="n">
         <v>3.629840142095915</v>
@@ -53410,7 +53368,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="B40" t="n">
         <v>3.584724689165187</v>
@@ -53424,7 +53382,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="B41" t="n">
         <v>3.110834813499112</v>
@@ -53438,7 +53396,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="B42" t="n">
         <v>4.292362344582593</v>
@@ -53452,7 +53410,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="B43" t="n">
         <v>6.797158081705151</v>
@@ -53466,7 +53424,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="B44" t="n">
         <v>5.207460035523979</v>
@@ -53480,7 +53438,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="B45" t="n">
         <v>5.54777975133215</v>
@@ -53494,7 +53452,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="B46" t="n">
         <v>3.994671403197158</v>
@@ -53508,7 +53466,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="B47" t="n">
         <v>4.270692717584369</v>
@@ -53522,7 +53480,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="B48" t="n">
         <v>4.303019538188277</v>
@@ -53536,7 +53494,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="B49" t="n">
         <v>4.312611012433393</v>
@@ -53550,7 +53508,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="B50" t="n">
         <v>2.614564831261101</v>
@@ -53564,7 +53522,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="B51" t="n">
         <v>4.076021314387211</v>
@@ -53578,7 +53536,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="B52" t="n">
         <v>3.888809946714032</v>
@@ -53592,7 +53550,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="B53" t="n">
         <v>4.292007104795737</v>
@@ -53606,7 +53564,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="B54" t="n">
         <v>3.752753108348135</v>
@@ -53620,7 +53578,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="B55" t="n">
         <v>4.218117229129662</v>
@@ -53634,7 +53592,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="B56" t="n">
         <v>4.831971580817052</v>
@@ -53648,7 +53606,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="B57" t="n">
         <v>3.476731793960924</v>
@@ -53662,7 +53620,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="B58" t="n">
         <v>6.78898756660746</v>
@@ -53676,7 +53634,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="B59" t="n">
         <v>2.346714031971581</v>
@@ -53690,7 +53648,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="B60" t="n">
         <v>3.920426287744228</v>
@@ -53704,7 +53662,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="B61" t="n">
         <v>2.663587921847247</v>
@@ -53718,7 +53676,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="B62" t="n">
         <v>3.990408525754884</v>
@@ -53732,7 +53690,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="B63" t="n">
         <v>3.458614564831261</v>
@@ -53746,7 +53704,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="B64" t="n">
         <v>2.093783303730018</v>
@@ -53760,7 +53718,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="B65" t="n">
         <v>5.489520426287744</v>
@@ -53774,7 +53732,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="B66" t="n">
         <v>2.906216696269982</v>
@@ -53788,7 +53746,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="B67" t="n">
         <v>1.715808170515098</v>
@@ -53802,7 +53760,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="B68" t="n">
         <v>2.825932504440497</v>
@@ -53816,7 +53774,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="B69" t="n">
         <v>3.784724689165186</v>
@@ -53830,7 +53788,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="B70" t="n">
         <v>3.180817051509769</v>
@@ -53844,7 +53802,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="B71" t="n">
         <v>1.913676731793961</v>
@@ -53858,7 +53816,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="B72" t="n">
         <v>3.95133214920071</v>
@@ -53872,7 +53830,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="B73" t="n">
         <v>1.707282415630551</v>
@@ -53886,7 +53844,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="B74" t="n">
         <v>2.158081705150977</v>
@@ -53900,7 +53858,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="B75" t="n">
         <v>4.597158081705151</v>
@@ -53914,7 +53872,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="B76" t="n">
         <v>3.892362344582593</v>
@@ -53928,7 +53886,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="B77" t="n">
         <v>2.721847246891652</v>
@@ -53942,7 +53900,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="B78" t="n">
         <v>2.481349911190053</v>
@@ -53956,7 +53914,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="B79" t="n">
         <v>2.206039076376554</v>
@@ -53970,7 +53928,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="B80" t="n">
         <v>3.1449378330373</v>
@@ -53984,7 +53942,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="B81" t="n">
         <v>3.69911190053286</v>
@@ -53998,7 +53956,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="B82" t="n">
         <v>2.802841918294849</v>
@@ -54012,7 +53970,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="B83" t="n">
         <v>3.624511545293073</v>
@@ -54026,7 +53984,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="B84" t="n">
         <v>2.143872113676732</v>
@@ -54040,7 +53998,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="B85" t="n">
         <v>6.127175843694494</v>
@@ -54054,7 +54012,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="B86" t="n">
         <v>2.901598579040852</v>
@@ -54068,7 +54026,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="B87" t="n">
         <v>2.205328596802842</v>
@@ -54082,7 +54040,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="B88" t="n">
         <v>2.372291296625222</v>
@@ -54096,7 +54054,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="B89" t="n">
         <v>7.349911190053286</v>
@@ -54110,7 +54068,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="B90" t="n">
         <v>3.288809946714032</v>
@@ -54143,7 +54101,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="B1" t="n">
         <v>39.13712255772646</v>
@@ -54157,7 +54115,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="B2" t="n">
         <v>37.39502664298401</v>
@@ -54190,7 +54148,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="B1" t="n">
         <v>0.813854351687389</v>
@@ -54204,7 +54162,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="B2" t="n">
         <v>0.8618117229129663</v>
@@ -54218,7 +54176,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="B3" t="n">
         <v>1.354529307282416</v>
@@ -54232,7 +54190,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="B4" t="n">
         <v>0.922202486678508</v>
@@ -54246,7 +54204,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="B5" t="n">
         <v>0.627708703374778</v>
@@ -54260,7 +54218,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="B6" t="n">
         <v>0.5374777975133215</v>
@@ -54274,7 +54232,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="B7" t="n">
         <v>2.149200710479574</v>
@@ -54288,7 +54246,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="B8" t="n">
         <v>2.018117229129663</v>
@@ -54302,7 +54260,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="B9" t="n">
         <v>0.9548845470692717</v>
@@ -54316,7 +54274,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="B10" t="n">
         <v>0.952753108348135</v>
@@ -54330,7 +54288,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="B11" t="n">
         <v>1.282415630550622</v>
@@ -54344,7 +54302,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="B12" t="n">
         <v>0.7349911190053285</v>
@@ -54358,7 +54316,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="B13" t="n">
         <v>1.068916518650089</v>
@@ -54372,7 +54330,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="B14" t="n">
         <v>0.6948490230905862</v>
@@ -54386,7 +54344,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="B15" t="n">
         <v>1.402841918294849</v>
@@ -54400,7 +54358,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="B16" t="n">
         <v>0.5943161634103019</v>
@@ -54414,7 +54372,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="B17" t="n">
         <v>0.8998223801065719</v>
@@ -54428,7 +54386,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="B18" t="n">
         <v>0.9516873889875667</v>
@@ -54442,7 +54400,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="B19" t="n">
         <v>0.7513321492007105</v>
@@ -54456,7 +54414,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="B20" t="n">
         <v>1.013143872113677</v>
@@ -54470,7 +54428,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="B21" t="n">
         <v>0.6827708703374777</v>
@@ -54484,7 +54442,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="B22" t="n">
         <v>0.6266429840142096</v>
@@ -54498,7 +54456,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="B23" t="n">
         <v>0.5761989342806394</v>
@@ -54512,7 +54470,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="B24" t="n">
         <v>0.6763765541740675</v>
@@ -54526,7 +54484,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="B25" t="n">
         <v>0.8941385435168739</v>
@@ -54540,7 +54498,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="B26" t="n">
         <v>1.146358792184725</v>
@@ -54554,7 +54512,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="B27" t="n">
         <v>1.504085257548845</v>
@@ -54568,7 +54526,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="B28" t="n">
         <v>0.8966252220248668</v>
@@ -54582,7 +54540,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="B29" t="n">
         <v>0.5268206039076376</v>
@@ -54596,7 +54554,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="B30" t="n">
         <v>1.032682060390764</v>
@@ -54610,7 +54568,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="B31" t="n">
         <v>1.346358792184725</v>
@@ -54624,7 +54582,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="B32" t="n">
         <v>0.697335701598579</v>
@@ -54638,7 +54596,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="B33" t="n">
         <v>0.974777975133215</v>
@@ -54652,7 +54610,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="B34" t="n">
         <v>0.5417406749555951</v>
@@ -54666,7 +54624,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="B35" t="n">
         <v>0.6895204262877442</v>
@@ -54680,7 +54638,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B36" t="n">
         <v>2.007104795737122</v>
@@ -54694,7 +54652,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="B37" t="n">
         <v>0.841563055062167</v>
@@ -54708,7 +54666,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B38" t="n">
         <v>0.5179396092362345</v>
@@ -54722,7 +54680,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="B39" t="n">
         <v>0.3808170515097691</v>
@@ -54736,7 +54694,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="B40" t="n">
         <v>0.416696269982238</v>
@@ -54750,7 +54708,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="B41" t="n">
         <v>0.7932504440497335</v>
@@ -54764,7 +54722,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="B42" t="n">
         <v>0.8323268206039076</v>
@@ -54778,7 +54736,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="B43" t="n">
         <v>1.263943161634103</v>
@@ -54792,7 +54750,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="B44" t="n">
         <v>1.438365896980462</v>
@@ -54806,7 +54764,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="B45" t="n">
         <v>0.672113676731794</v>
@@ -54820,7 +54778,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="B46" t="n">
         <v>1.814920071047957</v>
@@ -54834,7 +54792,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="B47" t="n">
         <v>1.118650088809947</v>
@@ -54848,7 +54806,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="B48" t="n">
         <v>1.233392539964476</v>
@@ -54862,7 +54820,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="B49" t="n">
         <v>1.072824156305506</v>
@@ -54876,7 +54834,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="B50" t="n">
         <v>0.9595026642984015</v>
@@ -54890,7 +54848,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="B51" t="n">
         <v>0.8404973357015986</v>
@@ -54904,7 +54862,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="B52" t="n">
         <v>0.8078152753108349</v>
@@ -54918,7 +54876,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="B53" t="n">
         <v>1.052930728241563</v>
@@ -54932,7 +54890,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="B54" t="n">
         <v>0.6621669626998223</v>
@@ -54946,7 +54904,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="B55" t="n">
         <v>1.200355239786856</v>
@@ -54960,7 +54918,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="B56" t="n">
         <v>0.6621669626998223</v>
@@ -54974,7 +54932,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="B57" t="n">
         <v>1.392539964476021</v>
@@ -54988,7 +54946,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="B58" t="n">
         <v>1.370870337477798</v>
@@ -55002,7 +54960,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="B59" t="n">
         <v>0.5246891651865009</v>
@@ -55016,7 +54974,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="B60" t="n">
         <v>0.6504440497335702</v>
@@ -55030,7 +54988,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="B61" t="n">
         <v>1.057193605683837</v>
@@ -55044,7 +55002,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="B62" t="n">
         <v>1.052220248667851</v>
@@ -55058,7 +55016,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="B63" t="n">
         <v>1.223801065719361</v>
@@ -55072,7 +55030,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="B64" t="n">
         <v>0.5964476021314388</v>
@@ -55086,7 +55044,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="B65" t="n">
         <v>0.5534635879218472</v>
@@ -55100,7 +55058,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="B66" t="n">
         <v>0.4618117229129662</v>
@@ -55114,7 +55072,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="B67" t="n">
         <v>1.409946714031971</v>
@@ -55128,7 +55086,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="B68" t="n">
         <v>0.430550621669627</v>
@@ -55142,7 +55100,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="B69" t="n">
         <v>1.507282415630551</v>
@@ -55156,7 +55114,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="B70" t="n">
         <v>1.081705150976909</v>
@@ -55170,7 +55128,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="B71" t="n">
         <v>1.843694493783304</v>
@@ -55184,7 +55142,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="B72" t="n">
         <v>2.314387211367673</v>
@@ -55198,7 +55156,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="B73" t="n">
         <v>0.7829484902309058</v>
@@ -55212,7 +55170,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="B74" t="n">
         <v>0.6191829484902309</v>
@@ -55226,7 +55184,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="B75" t="n">
         <v>0.9619893428063944</v>
@@ -55240,7 +55198,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="B76" t="n">
         <v>2.489520426287744</v>
@@ -55254,7 +55212,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="B77" t="n">
         <v>0.605683836589698</v>
@@ -55268,7 +55226,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="B78" t="n">
         <v>0.5868561278863232</v>
@@ -55282,7 +55240,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="B79" t="n">
         <v>0.3371225577264654</v>
@@ -55296,7 +55254,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="B80" t="n">
         <v>0.9200710479573713</v>
@@ -55310,7 +55268,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="B81" t="n">
         <v>0.6376554174067496</v>
@@ -55324,7 +55282,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="B82" t="n">
         <v>0.6387211367673179</v>
@@ -55338,7 +55296,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="B83" t="n">
         <v>1.091296625222025</v>
@@ -55352,7 +55310,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="B84" t="n">
         <v>0.7317939609236235</v>
@@ -55366,7 +55324,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="B85" t="n">
         <v>2.183303730017762</v>
@@ -55380,7 +55338,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="B86" t="n">
         <v>0.769449378330373</v>
@@ -55394,7 +55352,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="B87" t="n">
         <v>1.11190053285968</v>
@@ -55408,7 +55366,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="B88" t="n">
         <v>1.265719360568384</v>
@@ -55422,7 +55380,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="B89" t="n">
         <v>0.6877442273534636</v>
@@ -55436,7 +55394,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="B90" t="n">
         <v>0.6909413854351687</v>
@@ -55450,7 +55408,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="B91" t="n">
         <v>1.912255772646536</v>
@@ -55464,7 +55422,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="B92" t="n">
         <v>0.7225577264653641</v>
@@ -55478,7 +55436,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="B93" t="n">
         <v>1.459680284191829</v>
@@ -55492,7 +55450,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="B94" t="n">
         <v>0.6905861456483127</v>
@@ -55506,7 +55464,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="B95" t="n">
         <v>1.613143872113677</v>
@@ -55520,7 +55478,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="B96" t="n">
         <v>0.5865008880994671</v>
@@ -55534,7 +55492,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="B97" t="n">
         <v>0.9243339253996448</v>
@@ -55548,7 +55506,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="B98" t="n">
         <v>0.8422735346358792</v>
@@ -55562,7 +55520,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="B99" t="n">
         <v>1.029840142095915</v>
@@ -55576,7 +55534,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="B100" t="n">
         <v>0.5214920071047957</v>
@@ -55590,7 +55548,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="B101" t="n">
         <v>1.451154529307283</v>
@@ -55604,7 +55562,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="B102" t="n">
         <v>1.669626998223801</v>
@@ -55618,7 +55576,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="B103" t="n">
         <v>0.9307282415630551</v>
@@ -55632,7 +55590,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="B104" t="n">
         <v>0.4653641207815276</v>
@@ -55646,7 +55604,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="B105" t="n">
         <v>1.945293072824156</v>
@@ -55660,7 +55618,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="B106" t="n">
         <v>0.4984014209591474</v>
@@ -55674,7 +55632,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="B107" t="n">
         <v>0.7147424511545293</v>
@@ -55688,7 +55646,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="B108" t="n">
         <v>1.868206039076377</v>
@@ -55702,7 +55660,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="B109" t="n">
         <v>0.7669626998223801</v>
@@ -55716,7 +55674,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="B110" t="n">
         <v>0.9534635879218473</v>
@@ -55730,7 +55688,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="B111" t="n">
         <v>1.080284191829485</v>
@@ -55744,7 +55702,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="B112" t="n">
         <v>1.327886323268206</v>
@@ -55758,7 +55716,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="B113" t="n">
         <v>0.62202486678508</v>
@@ -55772,7 +55730,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="B114" t="n">
         <v>0.5182948490230905</v>
@@ -55786,7 +55744,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="B115" t="n">
         <v>1.499467140319716</v>
@@ -55800,7 +55758,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="B116" t="n">
         <v>0.5715808170515098</v>
@@ -55814,7 +55772,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="B117" t="n">
         <v>0.6802841918294849</v>
@@ -55828,7 +55786,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="B118" t="n">
         <v>0.7577264653641208</v>
@@ -55842,7 +55800,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="B119" t="n">
         <v>1.029129662522202</v>
@@ -55856,7 +55814,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="B120" t="n">
         <v>1.337122557726465</v>
@@ -55870,7 +55828,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="B121" t="n">
         <v>0.4447602131438721</v>
@@ -55884,7 +55842,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="B122" t="n">
         <v>1.346003552397869</v>
@@ -55898,7 +55856,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="B123" t="n">
         <v>0.5055062166962699</v>
@@ -55912,7 +55870,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="B124" t="n">
         <v>1.43943161634103</v>
@@ -55926,7 +55884,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="B125" t="n">
         <v>1.592539964476021</v>
@@ -55940,7 +55898,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="B126" t="n">
         <v>0.6468916518650089</v>
@@ -55954,7 +55912,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="B127" t="n">
         <v>1.068561278863233</v>
@@ -55968,7 +55926,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="B128" t="n">
         <v>1.728241563055062</v>
@@ -55982,7 +55940,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="B129" t="n">
         <v>0.8181172291296626</v>
@@ -55996,7 +55954,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="B130" t="n">
         <v>0.5122557726465364</v>
@@ -56010,7 +55968,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="B131" t="n">
         <v>0.6774422735346359</v>
@@ -56024,7 +55982,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="B132" t="n">
         <v>0.8408525754884547</v>
@@ -56038,7 +55996,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="B133" t="n">
         <v>1.219893428063943</v>
@@ -56052,7 +56010,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="B134" t="n">
         <v>0.4760213143872113</v>
@@ -56066,7 +56024,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="B135" t="n">
         <v>0.6415630550621669</v>
@@ -56080,7 +56038,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="B136" t="n">
         <v>0.6980461811722913</v>
@@ -56094,7 +56052,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="B137" t="n">
         <v>0.5737122557726465</v>
@@ -56108,7 +56066,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="B138" t="n">
         <v>0.7850799289520426</v>
@@ -56122,7 +56080,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="B139" t="n">
         <v>0.9133214920071048</v>
@@ -56136,7 +56094,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="B140" t="n">
         <v>1.102309058614565</v>
@@ -56150,7 +56108,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="B141" t="n">
         <v>1.190053285968028</v>
@@ -56164,7 +56122,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="B142" t="n">
         <v>1.578330373001776</v>
@@ -56178,7 +56136,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="B143" t="n">
         <v>0.6589698046181173</v>
@@ -56192,7 +56150,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="B144" t="n">
         <v>1.440497335701599</v>
@@ -56206,7 +56164,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="B145" t="n">
         <v>1.017761989342806</v>
@@ -56220,7 +56178,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="B146" t="n">
         <v>0.830550621669627</v>
@@ -56234,7 +56192,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="B147" t="n">
         <v>1.84404973357016</v>
@@ -56248,7 +56206,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="B148" t="n">
         <v>0.7591474245115453</v>
@@ -56262,7 +56220,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="B149" t="n">
         <v>1.541385435168739</v>
@@ -56276,7 +56234,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="B150" t="n">
         <v>0.9214920071047957</v>
@@ -56290,7 +56248,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="B151" t="n">
         <v>0.8028419182948491</v>
@@ -56304,7 +56262,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="B152" t="n">
         <v>1.893428063943162</v>
@@ -56318,7 +56276,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="B153" t="n">
         <v>0.8984014209591474</v>
@@ -56332,7 +56290,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="B154" t="n">
         <v>0.8980461811722913</v>
@@ -56346,7 +56304,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="B155" t="n">
         <v>0.9225577264653642</v>
@@ -56360,7 +56318,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="B156" t="n">
         <v>0.5705150976909413</v>
@@ -56374,7 +56332,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="B157" t="n">
         <v>0.4465364120781528</v>
@@ -56388,7 +56346,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="B158" t="n">
         <v>0.5492007104795738</v>
@@ -56402,7 +56360,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="B159" t="n">
         <v>0.7637655417406749</v>
@@ -56416,7 +56374,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="B160" t="n">
         <v>1.132504440497336</v>
@@ -56430,7 +56388,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="B161" t="n">
         <v>0.8539964476021314</v>
@@ -56444,7 +56402,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="B162" t="n">
         <v>0.8394316163410301</v>
@@ -56458,7 +56416,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="B163" t="n">
         <v>0.6145648312611013</v>
@@ -56472,7 +56430,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="B164" t="n">
         <v>0.8628774422735347</v>
@@ -56486,7 +56444,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="B165" t="n">
         <v>1.312255772646536</v>
@@ -56500,7 +56458,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="B166" t="n">
         <v>0.877797513321492</v>
@@ -56514,7 +56472,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="B167" t="n">
         <v>0.5953818827708703</v>
@@ -56528,7 +56486,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="B168" t="n">
         <v>1.166252220248668</v>
@@ -56542,7 +56500,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="B169" t="n">
         <v>0.6092362344582594</v>
@@ -56556,7 +56514,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="B170" t="n">
         <v>1.744227353463588</v>
@@ -56570,7 +56528,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="B171" t="n">
         <v>1.398934280639432</v>
@@ -56584,7 +56542,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="B172" t="n">
         <v>0.8593250444049734</v>
@@ -56598,7 +56556,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="B173" t="n">
         <v>0.9158081705150977</v>
@@ -56612,7 +56570,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="B174" t="n">
         <v>1.749200710479574</v>
@@ -56626,7 +56584,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="B175" t="n">
         <v>0.9289520426287744</v>
@@ -56640,7 +56598,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="B176" t="n">
         <v>0.9790408525754885</v>
@@ -56654,7 +56612,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="B177" t="n">
         <v>0.6550621669626998</v>
@@ -56668,7 +56626,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="B178" t="n">
         <v>1.159502664298401</v>
@@ -56682,7 +56640,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="B179" t="n">
         <v>1.065008880994671</v>
@@ -56696,7 +56654,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="B180" t="n">
         <v>1.61740674955595</v>
@@ -56710,7 +56668,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="B181" t="n">
         <v>0.9435168738898757</v>
@@ -56724,7 +56682,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="B182" t="n">
         <v>0.6149200710479573</v>
@@ -56738,7 +56696,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="B183" t="n">
         <v>0.9793960923623446</v>
@@ -56752,7 +56710,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="B184" t="n">
         <v>0.741740674955595</v>
@@ -56766,7 +56724,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="B185" t="n">
         <v>0.8841918294849023</v>
@@ -56780,7 +56738,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="B186" t="n">
         <v>0.4564831261101243</v>
@@ -56794,7 +56752,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="B187" t="n">
         <v>1.747069271758437</v>
@@ -56808,7 +56766,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="B188" t="n">
         <v>0.4603907637655417</v>
@@ -56822,7 +56780,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="B189" t="n">
         <v>0.9655417406749556</v>
@@ -56836,7 +56794,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="B190" t="n">
         <v>0.5769094138543517</v>
@@ -56850,7 +56808,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="B191" t="n">
         <v>0.958436944937833</v>
@@ -56864,7 +56822,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="B192" t="n">
         <v>0.5488454706927176</v>
@@ -56878,7 +56836,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="B193" t="n">
         <v>0.5076376554174068</v>
@@ -56892,7 +56850,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="B194" t="n">
         <v>1.086678507992895</v>
@@ -56906,7 +56864,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="B195" t="n">
         <v>1.007460035523979</v>
@@ -56920,7 +56878,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="B196" t="n">
         <v>1.521492007104796</v>
@@ -56934,7 +56892,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="B197" t="n">
         <v>0.6941385435168739</v>
@@ -56948,7 +56906,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="B198" t="n">
         <v>0.6589698046181173</v>
@@ -56962,7 +56920,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="B199" t="n">
         <v>0.6536412078152753</v>
@@ -56976,7 +56934,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="B200" t="n">
         <v>0.7758436944937833</v>
@@ -56990,7 +56948,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="B201" t="n">
         <v>0.7140319715808171</v>
@@ -57004,7 +56962,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="B202" t="n">
         <v>1.042628774422735</v>
@@ -57018,7 +56976,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="B203" t="n">
         <v>1.958436944937833</v>
@@ -57032,7 +56990,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="B204" t="n">
         <v>1.425222024866785</v>
@@ -57046,7 +57004,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="B205" t="n">
         <v>0.9325044404973357</v>
@@ -57060,7 +57018,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="B206" t="n">
         <v>1.604973357015986</v>
@@ -57074,7 +57032,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="B207" t="n">
         <v>2.56056838365897</v>
@@ -57088,7 +57046,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="B208" t="n">
         <v>1.179396092362345</v>
@@ -57102,7 +57060,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="B209" t="n">
         <v>1.008525754884547</v>
@@ -57116,7 +57074,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="B210" t="n">
         <v>1.80461811722913</v>
@@ -57130,7 +57088,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="B211" t="n">
         <v>0.8795737122557726</v>
@@ -57144,7 +57102,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="B212" t="n">
         <v>0.5126110124333926</v>
@@ -57158,7 +57116,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="B213" t="n">
         <v>2.592539964476021</v>
@@ -57172,7 +57130,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="B214" t="n">
         <v>1.082415630550622</v>
@@ -57186,7 +57144,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="B215" t="n">
         <v>0.5165186500888099</v>
@@ -57200,7 +57158,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="B216" t="n">
         <v>0.9154529307282415</v>
@@ -57214,7 +57172,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="B217" t="n">
         <v>0.6493783303730017</v>
@@ -57228,7 +57186,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="B218" t="n">
         <v>0.6504440497335702</v>
@@ -57242,7 +57200,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="B219" t="n">
         <v>0.7811722912966252</v>
@@ -57256,7 +57214,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="B220" t="n">
         <v>0.6824156305506217</v>
@@ -57270,7 +57228,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="B221" t="n">
         <v>0.3772646536412078</v>
@@ -57284,7 +57242,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="B222" t="n">
         <v>1.086678507992895</v>
@@ -57298,7 +57256,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="B223" t="n">
         <v>0.9403197158081705</v>
@@ -57312,7 +57270,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="B224" t="n">
         <v>0.6923623445825933</v>
@@ -57326,7 +57284,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="B225" t="n">
         <v>1.024866785079929</v>
@@ -57340,7 +57298,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="B226" t="n">
         <v>0.9364120781527531</v>
@@ -57354,7 +57312,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="B227" t="n">
         <v>0.4522202486678508</v>
@@ -57368,7 +57326,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="B228" t="n">
         <v>0.7808170515097691</v>
@@ -57382,7 +57340,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="B229" t="n">
         <v>1.005683836589698</v>
@@ -57396,7 +57354,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="B230" t="n">
         <v>0.6369449378330373</v>
@@ -57410,7 +57368,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="B231" t="n">
         <v>1.307992895204263</v>
@@ -57424,7 +57382,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="B232" t="n">
         <v>0.4579040852575488</v>
@@ -57438,7 +57396,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="B233" t="n">
         <v>1.356660746003552</v>
@@ -57452,7 +57410,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="B234" t="n">
         <v>0.7847246891651865</v>
@@ -57466,7 +57424,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="B235" t="n">
         <v>0.7236234458259325</v>
@@ -57480,7 +57438,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="B236" t="n">
         <v>0.6738898756660746</v>
@@ -57494,7 +57452,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="B237" t="n">
         <v>1.164831261101243</v>
@@ -57508,7 +57466,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="B238" t="n">
         <v>0.7889875666074601</v>
@@ -57522,7 +57480,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="B239" t="n">
         <v>1.955595026642984</v>
@@ -57536,7 +57494,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="B240" t="n">
         <v>0.9357015985790409</v>
@@ -57550,7 +57508,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="B241" t="n">
         <v>0.5563055062166963</v>
@@ -57564,7 +57522,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="B242" t="n">
         <v>0.4081705150976909</v>
@@ -57578,7 +57536,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="B243" t="n">
         <v>0.6206039076376554</v>
@@ -57592,7 +57550,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="B244" t="n">
         <v>1.08809946714032</v>
@@ -57606,7 +57564,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="B245" t="n">
         <v>1.204973357015986</v>
@@ -57620,7 +57578,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="B246" t="n">
         <v>0.7481349911190053</v>
@@ -57634,7 +57592,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="B247" t="n">
         <v>2.129307282415631</v>
@@ -57648,7 +57606,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="B248" t="n">
         <v>2.302309058614565</v>
@@ -57662,7 +57620,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="B249" t="n">
         <v>1.079218472468916</v>
@@ -57676,7 +57634,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="B250" t="n">
         <v>1.274245115452931</v>
@@ -57690,7 +57648,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="B251" t="n">
         <v>1.976909413854352</v>
@@ -57704,7 +57662,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="B252" t="n">
         <v>1.479928952042629</v>
@@ -57718,7 +57676,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="B253" t="n">
         <v>1.84404973357016</v>
@@ -57732,7 +57690,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="B254" t="n">
         <v>2.111545293072824</v>
@@ -57746,7 +57704,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="B255" t="n">
         <v>0.9513321492007105</v>
@@ -57760,7 +57718,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="B256" t="n">
         <v>0.772291296625222</v>
@@ -57774,7 +57732,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="B257" t="n">
         <v>2.89449378330373</v>
@@ -57788,7 +57746,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="B258" t="n">
         <v>1.057548845470693</v>
@@ -57802,7 +57760,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="B259" t="n">
         <v>0.5637655417406749</v>
@@ -57816,7 +57774,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="B260" t="n">
         <v>0.4600355239786856</v>
@@ -57830,7 +57788,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="B261" t="n">
         <v>1.02841918294849</v>
@@ -57844,7 +57802,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="B262" t="n">
         <v>1.603197158081705</v>
@@ -57858,7 +57816,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="B263" t="n">
         <v>0.708348134991119</v>
@@ -57872,7 +57830,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="B264" t="n">
         <v>0.4905861456483126</v>
@@ -57886,7 +57844,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="B265" t="n">
         <v>1.095914742451155</v>
@@ -57900,7 +57858,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="B266" t="n">
         <v>0.9161634103019538</v>
@@ -57914,7 +57872,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="B267" t="n">
         <v>1.149200710479574</v>
@@ -57928,7 +57886,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="B268" t="n">
         <v>0.7975133214920072</v>
@@ -57942,7 +57900,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="B269" t="n">
         <v>1.1449378330373</v>
@@ -57956,7 +57914,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="B270" t="n">
         <v>0.6682060390763765</v>
@@ -57970,7 +57928,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="B271" t="n">
         <v>0.8969804618117229</v>
@@ -57984,7 +57942,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="B272" t="n">
         <v>0.861101243339254</v>
@@ -57998,7 +57956,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="B273" t="n">
         <v>1.011367673179396</v>
@@ -58012,7 +57970,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="B274" t="n">
         <v>0.6909413854351687</v>
@@ -58026,7 +57984,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="B275" t="n">
         <v>1.730373001776199</v>
@@ -58040,7 +57998,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="B276" t="n">
         <v>2.046891651865009</v>
@@ -58054,7 +58012,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="B277" t="n">
         <v>0.7914742451154529</v>
@@ -58068,7 +58026,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="B278" t="n">
         <v>0.7957371225577264</v>
@@ -58082,7 +58040,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="B279" t="n">
         <v>0.8067495559502664</v>
@@ -58096,7 +58054,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="B280" t="n">
         <v>0.9285968028419183</v>
@@ -58110,7 +58068,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="B281" t="n">
         <v>0.5687388987566607</v>
@@ -58124,7 +58082,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="B282" t="n">
         <v>0.7676731793960924</v>
@@ -58138,7 +58096,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="B283" t="n">
         <v>0.725044404973357</v>
@@ -58152,7 +58110,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="B284" t="n">
         <v>0.8461811722912966</v>
@@ -58166,7 +58124,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="B285" t="n">
         <v>1.46145648312611</v>
@@ -58180,7 +58138,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="B286" t="n">
         <v>0.7335701598579041</v>
@@ -58194,7 +58152,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="B287" t="n">
         <v>1.655772646536412</v>
@@ -58208,7 +58166,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="B288" t="n">
         <v>1.306216696269982</v>
@@ -58222,7 +58180,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="B289" t="n">
         <v>0.7072824156305506</v>
@@ -58236,7 +58194,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="B290" t="n">
         <v>0.7886323268206039</v>
@@ -58250,7 +58208,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="B291" t="n">
         <v>1.46145648312611</v>
@@ -58264,7 +58222,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="B292" t="n">
         <v>0.3928952042628774</v>
@@ -58278,7 +58236,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="B293" t="n">
         <v>1.550266429840142</v>
@@ -58292,7 +58250,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="B294" t="n">
         <v>0.830550621669627</v>
@@ -58306,7 +58264,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="B295" t="n">
         <v>1.264653641207815</v>
@@ -58320,7 +58278,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="B296" t="n">
         <v>0.7570159857904085</v>
@@ -58334,7 +58292,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="B297" t="n">
         <v>0.9374777975133215</v>
@@ -58348,7 +58306,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="B298" t="n">
         <v>2.091296625222025</v>
@@ -58362,7 +58320,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="B299" t="n">
         <v>0.6007104795737123</v>
@@ -58376,7 +58334,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="B300" t="n">
         <v>1.332504440497336</v>
@@ -58390,7 +58348,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="B301" t="n">
         <v>2.021669626998224</v>
@@ -58404,7 +58362,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="B302" t="n">
         <v>2.167317939609236</v>
@@ -58418,7 +58376,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="B303" t="n">
         <v>1.251509769094139</v>
@@ -58432,7 +58390,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="B304" t="n">
         <v>1.419893428063943</v>
@@ -58446,7 +58404,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -58460,7 +58418,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="B306" t="n">
         <v>0.5335701598579041</v>
@@ -58474,7 +58432,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="B307" t="n">
         <v>1.271758436944938</v>
@@ -58488,7 +58446,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="B308" t="n">
         <v>1.02841918294849</v>
@@ -58502,7 +58460,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="B309" t="n">
         <v>0.5328596802841918</v>
@@ -58516,7 +58474,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="B310" t="n">
         <v>0.8468916518650089</v>
@@ -58530,7 +58488,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="B311" t="n">
         <v>0.9985790408525755</v>
@@ -58544,7 +58502,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="B312" t="n">
         <v>0.7772646536412078</v>
@@ -58558,7 +58516,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="B313" t="n">
         <v>1.152042628774423</v>
@@ -58572,7 +58530,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="B314" t="n">
         <v>1.434103019538188</v>
@@ -58586,7 +58544,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="B315" t="n">
         <v>0.6653641207815275</v>
@@ -58600,7 +58558,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="B316" t="n">
         <v>0.4589698046181172</v>
@@ -58614,7 +58572,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="B317" t="n">
         <v>1.227353463587922</v>
@@ -58628,7 +58586,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="B318" t="n">
         <v>1.518650088809947</v>
@@ -58642,7 +58600,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="B319" t="n">
         <v>0.9534635879218473</v>
@@ -58656,7 +58614,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="B320" t="n">
         <v>1.099467140319716</v>
@@ -58670,7 +58628,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="B321" t="n">
         <v>0.6525754884547069</v>
@@ -58684,7 +58642,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="B322" t="n">
         <v>0.7715808170515097</v>
@@ -58698,7 +58656,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="B323" t="n">
         <v>0.5406749555950267</v>
@@ -58712,7 +58670,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="B324" t="n">
         <v>1.217051509769094</v>
@@ -58726,7 +58684,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="B325" t="n">
         <v>0.6600355239786856</v>
@@ -58740,7 +58698,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="B326" t="n">
         <v>0.6326820603907638</v>
@@ -58754,7 +58712,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="B327" t="n">
         <v>0.9438721136767317</v>
@@ -58768,7 +58726,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="B328" t="n">
         <v>1.482415630550622</v>
@@ -58782,7 +58740,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="B329" t="n">
         <v>1.158436944937833</v>
@@ -58796,7 +58754,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -58810,7 +58768,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="B331" t="n">
         <v>0.8358792184724689</v>
@@ -58824,7 +58782,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="B332" t="n">
         <v>0.3538188277087034</v>
@@ -58838,7 +58796,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="B333" t="n">
         <v>0.5282415630550622</v>
@@ -58852,7 +58810,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="B334" t="n">
         <v>0.7332149200710479</v>
@@ -58866,7 +58824,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="B335" t="n">
         <v>0.8813499111900532</v>
@@ -58880,7 +58838,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="B336" t="n">
         <v>0.7367673179396093</v>
@@ -58894,7 +58852,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B337" t="n">
         <v>0.6678507992895204</v>
@@ -58908,7 +58866,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="B338" t="n">
         <v>1.201065719360568</v>
@@ -58922,7 +58880,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="B339" t="n">
         <v>0.9946714031971581</v>
@@ -58936,7 +58894,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="B340" t="n">
         <v>0.7992895204262878</v>
@@ -58950,7 +58908,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="B341" t="n">
         <v>0.5815275310834813</v>
@@ -58964,7 +58922,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B342" t="n">
         <v>0.6934280639431616</v>
@@ -58978,7 +58936,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="B343" t="n">
         <v>0.4902309058614565</v>
@@ -58992,7 +58950,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="B344" t="n">
         <v>0.5282415630550622</v>
@@ -59006,7 +58964,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="B345" t="n">
         <v>0.4710479573712256</v>
@@ -59020,7 +58978,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="B346" t="n">
         <v>1.058969804618117</v>
@@ -59034,7 +58992,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="B347" t="n">
         <v>0.9182948490230906</v>
@@ -59048,7 +59006,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="B348" t="n">
         <v>0.5314387211367673</v>
@@ -59062,7 +59020,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="B349" t="n">
         <v>0.4561278863232682</v>
@@ -59076,7 +59034,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="B350" t="n">
         <v>0.5342806394316163</v>
@@ -59090,7 +59048,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="B351" t="n">
         <v>2.095559502664298</v>
@@ -59104,7 +59062,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="B352" t="n">
         <v>1.110834813499112</v>
@@ -59118,7 +59076,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="B353" t="n">
         <v>1.534991119005329</v>
@@ -59132,7 +59090,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="B354" t="n">
         <v>0.8550621669626999</v>
@@ -59146,7 +59104,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="B355" t="n">
         <v>0.5484902309058615</v>
@@ -59160,7 +59118,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="B356" t="n">
         <v>0.4664298401420959</v>
@@ -59174,7 +59132,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="B357" t="n">
         <v>1.435879218472469</v>
@@ -59188,7 +59146,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="B358" t="n">
         <v>0.4905861456483126</v>
@@ -59202,7 +59160,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="B359" t="n">
         <v>1.758081705150977</v>
@@ -59216,7 +59174,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="B360" t="n">
         <v>0.4966252220248668</v>
@@ -59230,7 +59188,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="B361" t="n">
         <v>0.9563055062166963</v>
@@ -59244,7 +59202,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="B362" t="n">
         <v>0.4678507992895204</v>
@@ -59258,7 +59216,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="B363" t="n">
         <v>0.7033747779751333</v>
@@ -59272,7 +59230,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="B364" t="n">
         <v>1.185435168738899</v>
@@ -59286,7 +59244,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="B365" t="n">
         <v>0.5172291296625222</v>
@@ -59300,7 +59258,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="B366" t="n">
         <v>0.4653641207815276</v>
@@ -59314,7 +59272,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="B367" t="n">
         <v>0.9470692717584369</v>
@@ -59328,7 +59286,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="B368" t="n">
         <v>0.8149200710479574</v>
@@ -59342,7 +59300,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="B369" t="n">
         <v>0.6770870337477798</v>
@@ -59356,7 +59314,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="B370" t="n">
         <v>0.8753108348134991</v>
@@ -59370,7 +59328,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="B371" t="n">
         <v>1.512255772646536</v>
@@ -59384,7 +59342,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="B372" t="n">
         <v>1.038365896980462</v>
@@ -59398,7 +59356,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="B373" t="n">
         <v>0.7573712255772647</v>
@@ -59412,7 +59370,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="B374" t="n">
         <v>0.8280639431616341</v>
@@ -59426,7 +59384,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="B375" t="n">
         <v>1.276376554174067</v>
@@ -59440,7 +59398,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="B376" t="n">
         <v>1.031616341030195</v>
@@ -59454,7 +59412,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="B377" t="n">
         <v>0.5239786856127886</v>
@@ -59468,7 +59426,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="B378" t="n">
         <v>0.6742451154529308</v>
@@ -59482,7 +59440,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="B379" t="n">
         <v>0.908348134991119</v>
@@ -59496,7 +59454,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="B380" t="n">
         <v>0.6014209591474245</v>
@@ -59510,7 +59468,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="B381" t="n">
         <v>0.908348134991119</v>
@@ -59524,7 +59482,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="B382" t="n">
         <v>0.713676731793961</v>
@@ -59538,7 +59496,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="B383" t="n">
         <v>1.369449378330373</v>
@@ -59552,7 +59510,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="B384" t="n">
         <v>1.618472468916519</v>
@@ -59566,7 +59524,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="B385" t="n">
         <v>0.7023090586145648</v>
@@ -59580,7 +59538,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="B386" t="n">
         <v>0.6802841918294849</v>
@@ -59594,7 +59552,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="B387" t="n">
         <v>0.500177619893428</v>
@@ -59608,7 +59566,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="B388" t="n">
         <v>1.121847246891652</v>
@@ -59622,7 +59580,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="B389" t="n">
         <v>1.942451154529307</v>
@@ -59636,7 +59594,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="B390" t="n">
         <v>1.37335701598579</v>
@@ -59650,7 +59608,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="B391" t="n">
         <v>0.6664298401420959</v>
@@ -59664,7 +59622,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="B392" t="n">
         <v>2.126820603907638</v>
@@ -59678,7 +59636,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="B393" t="n">
         <v>1.177619893428064</v>
@@ -59692,7 +59650,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="B394" t="n">
         <v>0.7957371225577264</v>
@@ -59706,7 +59664,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="B395" t="n">
         <v>0.6174067495559503</v>
@@ -59720,7 +59678,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="B396" t="n">
         <v>0.6216696269982238</v>
@@ -59734,7 +59692,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="B397" t="n">
         <v>1.004262877442273</v>
@@ -59748,7 +59706,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="B398" t="n">
         <v>2.398223801065719</v>
@@ -59762,7 +59720,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="B399" t="n">
         <v>0.6163410301953819</v>
@@ -59776,7 +59734,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="B400" t="n">
         <v>0.9715808170515098</v>
@@ -59790,7 +59748,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="B401" t="n">
         <v>0.5875666074600355</v>
@@ -59804,7 +59762,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="B402" t="n">
         <v>1.356305506216696</v>
@@ -59818,7 +59776,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="B403" t="n">
         <v>1.832682060390764</v>
@@ -59832,7 +59790,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="B404" t="n">
         <v>2.488454706927176</v>
@@ -59846,7 +59804,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="B405" t="n">
         <v>0.4255772646536412</v>
@@ -59860,7 +59818,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="B406" t="n">
         <v>0.8753108348134991</v>
@@ -59874,7 +59832,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="B407" t="n">
         <v>0.4621669626998224</v>
@@ -59888,7 +59846,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="B408" t="n">
         <v>0.5101243339253997</v>
@@ -59902,7 +59860,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="B409" t="n">
         <v>0.9051509769094138</v>
@@ -59916,7 +59874,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="B410" t="n">
         <v>1.341740674955595</v>
@@ -59930,7 +59888,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="B411" t="n">
         <v>1.0348134991119</v>
@@ -59944,7 +59902,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="B412" t="n">
         <v>0.6287744227353463</v>
@@ -59958,7 +59916,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="B413" t="n">
         <v>0.9950266429840142</v>
@@ -59972,7 +59930,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="B414" t="n">
         <v>1.227708703374778</v>
@@ -59986,7 +59944,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="B415" t="n">
         <v>0.544582593250444</v>
@@ -60000,7 +59958,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="B416" t="n">
         <v>0.5989342806394317</v>
@@ -60014,7 +59972,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="B417" t="n">
         <v>2.063232682060391</v>
@@ -60028,7 +59986,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="B418" t="n">
         <v>0.7552397868561279</v>
@@ -60042,7 +60000,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="B419" t="n">
         <v>0.4717584369449379</v>
@@ -60056,7 +60014,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="B420" t="n">
         <v>1.119715808170515</v>
@@ -60070,7 +60028,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="B421" t="n">
         <v>0.7776198934280639</v>
@@ -60084,7 +60042,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="B422" t="n">
         <v>0.5605683836589698</v>
@@ -60098,7 +60056,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="B423" t="n">
         <v>0.9911190053285968</v>
@@ -60112,7 +60070,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="B424" t="n">
         <v>1.227708703374778</v>
@@ -60126,7 +60084,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="B425" t="n">
         <v>0.760923623445826</v>
@@ -60140,7 +60098,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="B426" t="n">
         <v>0.6667850799289521</v>
@@ -60154,7 +60112,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="B427" t="n">
         <v>2.181527531083481</v>
@@ -60168,7 +60126,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="B428" t="n">
         <v>0.5452930728241563</v>
@@ -60182,7 +60140,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="B429" t="n">
         <v>0.7147424511545293</v>
@@ -60196,7 +60154,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="B430" t="n">
         <v>0.6877442273534636</v>
@@ -60210,7 +60168,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="B431" t="n">
         <v>0.9150976909413855</v>
@@ -60224,7 +60182,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="B432" t="n">
         <v>0.272113676731794</v>
@@ -60238,7 +60196,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="B433" t="n">
         <v>1.7101243339254</v>
@@ -60252,7 +60210,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="B434" t="n">
         <v>1.017051509769094</v>
@@ -60266,7 +60224,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="B435" t="n">
         <v>1.68348134991119</v>
@@ -60280,7 +60238,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="B436" t="n">
         <v>0.4170515097690942</v>
@@ -60294,7 +60252,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="B437" t="n">
         <v>0.4483126110124334</v>
@@ -60308,7 +60266,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="B438" t="n">
         <v>0.6238010657193606</v>
@@ -60322,7 +60280,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="B439" t="n">
         <v>0.9939609236234458</v>
@@ -60336,7 +60294,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="B440" t="n">
         <v>0.6380106571936057</v>
@@ -60350,7 +60308,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="B441" t="n">
         <v>0.7133214920071048</v>
@@ -60364,7 +60322,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="B442" t="n">
         <v>0.4969804618117229</v>
@@ -60378,7 +60336,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="B443" t="n">
         <v>0.4099467140319716</v>
@@ -60392,7 +60350,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="B444" t="n">
         <v>0.6763765541740675</v>
@@ -60406,7 +60364,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="B445" t="n">
         <v>0.930373001776199</v>
@@ -60420,7 +60378,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="B446" t="n">
         <v>1.044404973357016</v>
@@ -60434,7 +60392,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="B447" t="n">
         <v>2.705861456483126</v>
@@ -60448,7 +60406,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="B448" t="n">
         <v>1.116873889875666</v>
@@ -60462,7 +60420,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="B449" t="n">
         <v>0.8206039076376554</v>
@@ -60476,7 +60434,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="B450" t="n">
         <v>0.4955595026642984</v>
@@ -60490,7 +60448,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="B451" t="n">
         <v>1.283126110124334</v>
@@ -60504,7 +60462,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="B452" t="n">
         <v>0.8252220248667851</v>
@@ -60518,7 +60476,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="B453" t="n">
         <v>0.7896980461811723</v>
@@ -60532,7 +60490,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="B454" t="n">
         <v>1.114742451154529</v>
@@ -60546,7 +60504,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="B455" t="n">
         <v>1.623090586145648</v>
@@ -60560,7 +60518,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="B456" t="n">
         <v>0.5975133214920071</v>
@@ -60574,7 +60532,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="B457" t="n">
         <v>0.5609236234458259</v>
@@ -60588,7 +60546,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="B458" t="n">
         <v>0.7129662522202487</v>
@@ -60602,7 +60560,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="B459" t="n">
         <v>0.5950266429840142</v>
@@ -60616,7 +60574,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="B460" t="n">
         <v>0.8206039076376554</v>
@@ -60630,7 +60588,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="B461" t="n">
         <v>1.625932504440497</v>
@@ -60644,7 +60602,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="B462" t="n">
         <v>0.8408525754884547</v>
@@ -60658,7 +60616,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="B463" t="n">
         <v>0.5861456483126111</v>
@@ -60672,7 +60630,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="B464" t="n">
         <v>0.4735346358792185</v>
@@ -60686,7 +60644,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="B465" t="n">
         <v>1.041563055062167</v>
@@ -60700,7 +60658,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="B466" t="n">
         <v>0.9751332149200711</v>
@@ -60714,7 +60672,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="B467" t="n">
         <v>0.8813499111900532</v>
@@ -60728,7 +60686,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="B468" t="n">
         <v>0.8738898756660746</v>
@@ -60742,7 +60700,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="B469" t="n">
         <v>0.4682060390763765</v>
@@ -60756,7 +60714,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="B470" t="n">
         <v>0.8934280639431617</v>
@@ -60770,7 +60728,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="B471" t="n">
         <v>0.6802841918294849</v>
@@ -60784,7 +60742,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="B472" t="n">
         <v>1.167317939609236</v>
@@ -60798,7 +60756,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="B473" t="n">
         <v>1.045470692717584</v>
@@ -60812,7 +60770,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="B474" t="n">
         <v>0.3019538188277087</v>
@@ -60826,7 +60784,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="B475" t="n">
         <v>0.2621669626998224</v>
@@ -60840,7 +60798,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="B476" t="n">
         <v>0.1662522202486678</v>
@@ -60854,7 +60812,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="B477" t="n">
         <v>0.4234458259325045</v>
@@ -60868,7 +60826,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="B478" t="n">
         <v>0.3978685612788632</v>
@@ -60882,7 +60840,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B479" t="n">
         <v>1.60461811722913</v>
@@ -60896,7 +60854,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="B480" t="n">
         <v>0.4404973357015986</v>
@@ -60910,7 +60868,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="B481" t="n">
         <v>0.6305506216696269</v>
@@ -60924,7 +60882,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="B482" t="n">
         <v>0.4625222024866785</v>
@@ -60938,7 +60896,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="B483" t="n">
         <v>1.807460035523979</v>
@@ -60952,7 +60910,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="B484" t="n">
         <v>1.213143872113677</v>
@@ -60966,7 +60924,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="B485" t="n">
         <v>1.31651865008881</v>
@@ -60980,7 +60938,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="B486" t="n">
         <v>2.050799289520426</v>
@@ -60994,7 +60952,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="B487" t="n">
         <v>0.6955595026642984</v>
@@ -61008,7 +60966,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="B488" t="n">
         <v>0.7847246891651865</v>
@@ -61022,7 +60980,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="B489" t="n">
         <v>0.4103019538188277</v>
@@ -61036,7 +60994,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="B490" t="n">
         <v>1.636944937833037</v>
@@ -61050,7 +61008,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="B491" t="n">
         <v>0.7715808170515097</v>
@@ -61064,7 +61022,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="B492" t="n">
         <v>0.5865008880994671</v>
@@ -61078,7 +61036,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="B493" t="n">
         <v>0.6891651865008881</v>
@@ -61092,7 +61050,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="B494" t="n">
         <v>0.6909413854351687</v>
@@ -61106,7 +61064,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="B495" t="n">
         <v>0.7385435168738899</v>
@@ -61120,7 +61078,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="B496" t="n">
         <v>0.7257548845470693</v>
@@ -61134,7 +61092,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="B497" t="n">
         <v>1.060746003552398</v>
@@ -61148,7 +61106,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
       <c r="B498" t="n">
         <v>0.727886323268206</v>
@@ -61162,7 +61120,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>3568</v>
+        <v>3565</v>
       </c>
       <c r="B499" t="n">
         <v>0.7548845470692718</v>
@@ -61176,7 +61134,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>3569</v>
+        <v>3566</v>
       </c>
       <c r="B500" t="n">
         <v>1.219538188277087</v>
@@ -61190,7 +61148,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
       <c r="B501" t="n">
         <v>0.9392539964476021</v>
@@ -61204,7 +61162,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
       <c r="B502" t="n">
         <v>1.421314387211368</v>
@@ -61218,7 +61176,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="B503" t="n">
         <v>1.623445825932504</v>
@@ -61232,7 +61190,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>3573</v>
+        <v>3570</v>
       </c>
       <c r="B504" t="n">
         <v>1.486678507992895</v>
@@ -61246,7 +61204,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>3574</v>
+        <v>3571</v>
       </c>
       <c r="B505" t="n">
         <v>1.402841918294849</v>
@@ -61260,7 +61218,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
       <c r="B506" t="n">
         <v>0.6074600355239786</v>
@@ -61274,7 +61232,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>3576</v>
+        <v>3573</v>
       </c>
       <c r="B507" t="n">
         <v>0.7207815275310835</v>
@@ -61288,7 +61246,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>3577</v>
+        <v>3574</v>
       </c>
       <c r="B508" t="n">
         <v>1.051154529307282</v>
@@ -61302,7 +61260,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>3578</v>
+        <v>3575</v>
       </c>
       <c r="B509" t="n">
         <v>0.2905861456483126</v>
@@ -61325,7 +61283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61335,58 +61293,100 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3579</v>
+        <v>3576</v>
       </c>
       <c r="B1" t="n">
-        <v>12.60355239786856</v>
+        <v>15.849378330373</v>
       </c>
       <c r="C1" t="n">
-        <v>22.91036964344128</v>
+        <v>12.53516519463526</v>
       </c>
       <c r="D1" t="n">
-        <v>19.68768898488121</v>
+        <v>10.16069114470842</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3580</v>
+        <v>3577</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9683836589698</v>
+        <v>9.145648312611012</v>
       </c>
       <c r="C2" t="n">
-        <v>16.06395158652273</v>
+        <v>8.103042198233563</v>
       </c>
       <c r="D2" t="n">
-        <v>15.99697624190065</v>
+        <v>8.416630669546436</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3581</v>
+        <v>3578</v>
       </c>
       <c r="B3" t="n">
-        <v>23.68525754884547</v>
+        <v>7.0898756660746</v>
       </c>
       <c r="C3" t="n">
-        <v>19.03549231272489</v>
+        <v>9.616126921818777</v>
       </c>
       <c r="D3" t="n">
-        <v>21.54384449244061</v>
+        <v>9.919006479481641</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.86429840142096</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.53254824991822</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.07386609071274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.099822380106572</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.7219496238142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.19827213822894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.0056838365897</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.495093228655545</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.541684665226782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>3582</v>
       </c>
-      <c r="B4" t="n">
-        <v>12.87779751332149</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19.35803074910043</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.6390928725702</v>
+      <c r="B7" t="n">
+        <v>19.45932504440497</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.6756624141315</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.18617710583153</v>
       </c>
     </row>
   </sheetData>
